--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>21</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-5.88235294117647</v>
+      </c>
       <c r="L12" t="n">
         <v>474</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>474.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>29</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>474.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>33</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>474.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>34</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>17.24137931034483</v>
+      </c>
       <c r="L16" t="n">
         <v>475.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>34</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
       <c r="L17" t="n">
         <v>475.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>36</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>30.43478260869566</v>
+      </c>
       <c r="L18" t="n">
         <v>475.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>40</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>40.74074074074074</v>
+      </c>
       <c r="L19" t="n">
         <v>477</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>46</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>3.448275862068965</v>
+      </c>
       <c r="L20" t="n">
         <v>477.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>55</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>41.17647058823529</v>
+      </c>
       <c r="L21" t="n">
         <v>478.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>60</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>479.4</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>14.28571428571428</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L23" t="n">
         <v>479.9</v>
@@ -1466,7 +1488,7 @@
         <v>61</v>
       </c>
       <c r="K24" t="n">
-        <v>12.28070175438596</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>480.7</v>
@@ -1515,7 +1537,7 @@
         <v>66</v>
       </c>
       <c r="K25" t="n">
-        <v>21.31147540983606</v>
+        <v>25</v>
       </c>
       <c r="L25" t="n">
         <v>481.6</v>
@@ -1564,7 +1586,7 @@
         <v>71</v>
       </c>
       <c r="K26" t="n">
-        <v>12.12121212121212</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L26" t="n">
         <v>481.9</v>
@@ -1613,7 +1635,7 @@
         <v>71</v>
       </c>
       <c r="K27" t="n">
-        <v>12.12121212121212</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>482.2</v>
@@ -1662,7 +1684,7 @@
         <v>71</v>
       </c>
       <c r="K28" t="n">
-        <v>6.451612903225806</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L28" t="n">
         <v>482.3</v>
@@ -1711,7 +1733,7 @@
         <v>74</v>
       </c>
       <c r="K29" t="n">
-        <v>8.196721311475409</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>481.7</v>
@@ -1760,7 +1782,7 @@
         <v>77</v>
       </c>
       <c r="K30" t="n">
-        <v>12.5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L30" t="n">
         <v>482</v>
@@ -1809,7 +1831,7 @@
         <v>77</v>
       </c>
       <c r="K31" t="n">
-        <v>6.666666666666667</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L31" t="n">
         <v>481.4</v>
@@ -1860,7 +1882,7 @@
         <v>83</v>
       </c>
       <c r="K32" t="n">
-        <v>3.225806451612903</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L32" t="n">
         <v>480.7</v>
@@ -1911,7 +1933,7 @@
         <v>83</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.448275862068965</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L33" t="n">
         <v>480</v>
@@ -1962,7 +1984,7 @@
         <v>83</v>
       </c>
       <c r="K34" t="n">
-        <v>3.703703703703703</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L34" t="n">
         <v>479.4</v>
@@ -2013,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="K35" t="n">
-        <v>-4</v>
+        <v>-50</v>
       </c>
       <c r="L35" t="n">
         <v>478.3</v>
@@ -2064,7 +2086,7 @@
         <v>89</v>
       </c>
       <c r="K36" t="n">
-        <v>5.454545454545454</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>478.3</v>
@@ -2115,7 +2137,7 @@
         <v>90</v>
       </c>
       <c r="K37" t="n">
-        <v>3.571428571428571</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L37" t="n">
         <v>478.2</v>
@@ -2166,7 +2188,7 @@
         <v>92</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>477.9</v>
@@ -2217,7 +2239,7 @@
         <v>92</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.53846153846154</v>
+        <v>-20</v>
       </c>
       <c r="L39" t="n">
         <v>477.9</v>
@@ -2268,7 +2290,7 @@
         <v>95</v>
       </c>
       <c r="K40" t="n">
-        <v>6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>477.9</v>
@@ -2319,7 +2341,7 @@
         <v>99</v>
       </c>
       <c r="K41" t="n">
-        <v>-22.72727272727273</v>
+        <v>12.5</v>
       </c>
       <c r="L41" t="n">
         <v>477.5</v>
@@ -2370,7 +2392,7 @@
         <v>103</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.325581395348837</v>
+        <v>30</v>
       </c>
       <c r="L42" t="n">
         <v>478.1</v>
@@ -2421,7 +2443,7 @@
         <v>107</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.63829787234043</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L43" t="n">
         <v>478.3</v>
@@ -2472,7 +2494,7 @@
         <v>107</v>
       </c>
       <c r="K44" t="n">
-        <v>-8.695652173913043</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L44" t="n">
         <v>478.5</v>
@@ -2523,7 +2545,7 @@
         <v>108</v>
       </c>
       <c r="K45" t="n">
-        <v>-23.80952380952381</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L45" t="n">
         <v>478.6</v>
@@ -2574,7 +2596,7 @@
         <v>109</v>
       </c>
       <c r="K46" t="n">
-        <v>-10.52631578947368</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L46" t="n">
         <v>478.2</v>
@@ -2625,7 +2647,7 @@
         <v>113</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>478.3</v>
@@ -2676,7 +2698,7 @@
         <v>113</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>478.6</v>
@@ -2727,7 +2749,7 @@
         <v>113</v>
       </c>
       <c r="K49" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>478.9</v>
@@ -2778,7 +2800,7 @@
         <v>116</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.692307692307693</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L50" t="n">
         <v>478.6</v>
@@ -2880,7 +2902,7 @@
         <v>120</v>
       </c>
       <c r="K52" t="n">
-        <v>18.91891891891892</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L52" t="n">
         <v>479.1</v>
@@ -2931,7 +2953,7 @@
         <v>122</v>
       </c>
       <c r="K53" t="n">
-        <v>23.07692307692308</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>479.8</v>
@@ -2982,7 +3004,7 @@
         <v>123</v>
       </c>
       <c r="K54" t="n">
-        <v>20</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L54" t="n">
         <v>480.4</v>
@@ -3033,7 +3055,7 @@
         <v>126</v>
       </c>
       <c r="K55" t="n">
-        <v>11.62790697674419</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L55" t="n">
         <v>480.8</v>
@@ -3084,7 +3106,7 @@
         <v>126</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.702702702702703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L56" t="n">
         <v>481.1</v>
@@ -3135,7 +3157,7 @@
         <v>128</v>
       </c>
       <c r="K57" t="n">
-        <v>5.263157894736842</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L57" t="n">
         <v>481.2</v>
@@ -3186,7 +3208,7 @@
         <v>129</v>
       </c>
       <c r="K58" t="n">
-        <v>13.51351351351351</v>
+        <v>12.5</v>
       </c>
       <c r="L58" t="n">
         <v>481.4</v>
@@ -3237,7 +3259,7 @@
         <v>131</v>
       </c>
       <c r="K59" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L59" t="n">
         <v>481.4</v>
@@ -3339,7 +3361,7 @@
         <v>132</v>
       </c>
       <c r="K61" t="n">
-        <v>15.15151515151515</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>481.8</v>
@@ -3390,7 +3412,7 @@
         <v>134</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.225806451612903</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>481.6</v>
@@ -3441,7 +3463,7 @@
         <v>135</v>
       </c>
       <c r="K63" t="n">
-        <v>7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>481.1</v>
@@ -3492,7 +3514,7 @@
         <v>135</v>
       </c>
       <c r="K64" t="n">
-        <v>7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>480.7</v>
@@ -3543,7 +3565,7 @@
         <v>135</v>
       </c>
       <c r="K65" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L65" t="n">
         <v>480.6</v>
@@ -3594,7 +3616,7 @@
         <v>137</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L66" t="n">
         <v>480.3</v>
@@ -3645,7 +3667,7 @@
         <v>139</v>
       </c>
       <c r="K67" t="n">
-        <v>-7.692307692307693</v>
+        <v>-40</v>
       </c>
       <c r="L67" t="n">
         <v>480</v>
@@ -3696,7 +3718,7 @@
         <v>142</v>
       </c>
       <c r="K68" t="n">
-        <v>3.448275862068965</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L68" t="n">
         <v>479.9</v>
@@ -3798,7 +3820,7 @@
         <v>144</v>
       </c>
       <c r="K70" t="n">
-        <v>7.142857142857142</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L70" t="n">
         <v>479.8</v>
@@ -3849,7 +3871,7 @@
         <v>145</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L71" t="n">
         <v>479.7</v>
@@ -3900,7 +3922,7 @@
         <v>145</v>
       </c>
       <c r="K72" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>479.8</v>
@@ -3951,7 +3973,7 @@
         <v>145</v>
       </c>
       <c r="K73" t="n">
-        <v>-13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L73" t="n">
         <v>480</v>
@@ -4002,7 +4024,7 @@
         <v>145</v>
       </c>
       <c r="K74" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L74" t="n">
         <v>480.2</v>
@@ -4053,7 +4075,7 @@
         <v>146</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>480.3</v>
@@ -4104,7 +4126,7 @@
         <v>149</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>480.3</v>
@@ -4155,7 +4177,7 @@
         <v>153</v>
       </c>
       <c r="K77" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L77" t="n">
         <v>480.5</v>
@@ -4206,7 +4228,7 @@
         <v>153</v>
       </c>
       <c r="K78" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>480.4</v>
@@ -4257,7 +4279,7 @@
         <v>156</v>
       </c>
       <c r="K79" t="n">
-        <v>-12</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>480.1</v>
@@ -4308,7 +4330,7 @@
         <v>157</v>
       </c>
       <c r="K80" t="n">
-        <v>-15.38461538461539</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>479.8</v>
@@ -4359,7 +4381,7 @@
         <v>157</v>
       </c>
       <c r="K81" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>479.4</v>
@@ -4410,7 +4432,7 @@
         <v>157</v>
       </c>
       <c r="K82" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>479</v>
@@ -4461,7 +4483,7 @@
         <v>160</v>
       </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L83" t="n">
         <v>478.9</v>
@@ -4512,7 +4534,7 @@
         <v>160</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>478.8</v>
@@ -4563,7 +4585,7 @@
         <v>160</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L85" t="n">
         <v>478.8</v>
@@ -4614,7 +4636,7 @@
         <v>162</v>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>478.9</v>
@@ -4665,7 +4687,7 @@
         <v>164</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L87" t="n">
         <v>478.8</v>
@@ -4720,7 +4742,7 @@
         <v>164</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.090909090909092</v>
+        <v>25</v>
       </c>
       <c r="L88" t="n">
         <v>478.7</v>
@@ -4779,7 +4801,7 @@
         <v>165</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
         <v>479</v>
@@ -4838,7 +4860,7 @@
         <v>165</v>
       </c>
       <c r="K90" t="n">
-        <v>4.761904761904762</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>479.4</v>
@@ -4897,7 +4919,7 @@
         <v>165</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L91" t="n">
         <v>479.8</v>
@@ -4956,7 +4978,7 @@
         <v>166</v>
       </c>
       <c r="K92" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>480.3</v>
@@ -5015,7 +5037,7 @@
         <v>168</v>
       </c>
       <c r="K93" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>480.3</v>
@@ -5072,7 +5094,7 @@
         <v>172</v>
       </c>
       <c r="K94" t="n">
-        <v>-18.51851851851852</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>479.9</v>
@@ -5127,7 +5149,7 @@
         <v>176</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>479.9</v>
@@ -5184,7 +5206,7 @@
         <v>177</v>
       </c>
       <c r="K96" t="n">
-        <v>7.142857142857142</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L96" t="n">
         <v>480</v>
@@ -5241,7 +5263,7 @@
         <v>178</v>
       </c>
       <c r="K97" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>480</v>
@@ -5298,7 +5320,7 @@
         <v>178</v>
       </c>
       <c r="K98" t="n">
-        <v>-4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L98" t="n">
         <v>480</v>
@@ -5355,7 +5377,7 @@
         <v>178</v>
       </c>
       <c r="K99" t="n">
-        <v>9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L99" t="n">
         <v>479.9</v>
@@ -5412,7 +5434,7 @@
         <v>178</v>
       </c>
       <c r="K100" t="n">
-        <v>14.28571428571428</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L100" t="n">
         <v>479.8</v>

--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -475,25 +445,21 @@
         <v>478</v>
       </c>
       <c r="F2" t="n">
-        <v>33.5263</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>481.15</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C3" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D3" t="n">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="E3" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F3" t="n">
-        <v>447.8816</v>
+        <v>2569.0116</v>
       </c>
       <c r="G3" t="n">
-        <v>480.9833333333333</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C4" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D4" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E4" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F4" t="n">
-        <v>2049.253</v>
+        <v>1230.832</v>
       </c>
       <c r="G4" t="n">
-        <v>480.7166666666666</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C5" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D5" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E5" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F5" t="n">
-        <v>1075.4559</v>
+        <v>726.0869</v>
       </c>
       <c r="G5" t="n">
-        <v>480.45</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C6" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D6" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E6" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F6" t="n">
-        <v>10253.9946</v>
+        <v>710.2380000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>480.25</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C7" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D7" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E7" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>66.3261</v>
       </c>
       <c r="G7" t="n">
-        <v>480.05</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C8" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D8" t="n">
         <v>477</v>
       </c>
       <c r="E8" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F8" t="n">
-        <v>8.9491</v>
+        <v>624.6164</v>
       </c>
       <c r="G8" t="n">
-        <v>479.9166666666667</v>
+        <v>-10610.87397513</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C9" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D9" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E9" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>7707.0117</v>
       </c>
       <c r="G9" t="n">
-        <v>479.7166666666666</v>
+        <v>-2903.86227513</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C10" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D10" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E10" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F10" t="n">
-        <v>84.8948</v>
+        <v>359.4097</v>
       </c>
       <c r="G10" t="n">
-        <v>479.5166666666667</v>
+        <v>-2544.45257513</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C11" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D11" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E11" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F11" t="n">
-        <v>2.09643605</v>
+        <v>0.0001</v>
       </c>
       <c r="G11" t="n">
-        <v>479.4166666666667</v>
+        <v>-2544.45257513</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>474.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C12" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D12" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E12" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2102.648</v>
       </c>
       <c r="G12" t="n">
-        <v>479.2333333333333</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L12" t="n">
-        <v>474</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C13" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D13" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>221.2533</v>
       </c>
       <c r="G13" t="n">
-        <v>479.15</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L13" t="n">
-        <v>474.3</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C14" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D14" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E14" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F14" t="n">
-        <v>90.21080000000001</v>
+        <v>3472.0191</v>
       </c>
       <c r="G14" t="n">
-        <v>478.9</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>29</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>474.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C15" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D15" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E15" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F15" t="n">
-        <v>298.6064</v>
+        <v>4.3494</v>
       </c>
       <c r="G15" t="n">
-        <v>478.8166666666667</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>33</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L15" t="n">
-        <v>474.6</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C16" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D16" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E16" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>708.3309</v>
       </c>
       <c r="G16" t="n">
-        <v>478.65</v>
+        <v>266.5263248700004</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1102,22 +946,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>34</v>
-      </c>
-      <c r="K16" t="n">
-        <v>17.24137931034483</v>
-      </c>
-      <c r="L16" t="n">
-        <v>475.1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C17" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D17" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E17" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F17" t="n">
-        <v>241.54706395</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>478.5</v>
+        <v>266.5263248700004</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>34</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>475.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C18" t="n">
         <v>480</v>
@@ -1182,36 +1002,24 @@
         <v>480</v>
       </c>
       <c r="E18" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F18" t="n">
-        <v>1331.3443</v>
+        <v>693</v>
       </c>
       <c r="G18" t="n">
-        <v>478.4666666666666</v>
+        <v>-426.4736751299996</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>36</v>
-      </c>
-      <c r="K18" t="n">
-        <v>30.43478260869566</v>
-      </c>
-      <c r="L18" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C19" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D19" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E19" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="G19" t="n">
-        <v>478.4666666666666</v>
+        <v>-426.4736751299996</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>40</v>
-      </c>
-      <c r="K19" t="n">
-        <v>40.74074074074074</v>
-      </c>
-      <c r="L19" t="n">
-        <v>477</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C20" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D20" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E20" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F20" t="n">
-        <v>2022.7941</v>
+        <v>125.9999</v>
       </c>
       <c r="G20" t="n">
-        <v>478.4166666666667</v>
+        <v>-552.4735751299996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1290,22 +1086,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>46</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.448275862068965</v>
-      </c>
-      <c r="L20" t="n">
-        <v>477.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C21" t="n">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D21" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E21" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F21" t="n">
-        <v>312.02</v>
+        <v>324</v>
       </c>
       <c r="G21" t="n">
-        <v>478.4</v>
+        <v>-552.4735751299996</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>55</v>
-      </c>
-      <c r="K21" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L21" t="n">
-        <v>478.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>476.5</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C22" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D22" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E22" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F22" t="n">
-        <v>1672</v>
+        <v>676.7</v>
       </c>
       <c r="G22" t="n">
-        <v>478.4</v>
+        <v>-1229.17357513</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>60</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L22" t="n">
-        <v>479.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>476.7</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C23" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D23" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E23" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F23" t="n">
-        <v>102</v>
+        <v>886.9446</v>
       </c>
       <c r="G23" t="n">
-        <v>478.3</v>
+        <v>-1229.17357513</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>60</v>
-      </c>
-      <c r="K23" t="n">
-        <v>29.03225806451613</v>
-      </c>
-      <c r="L23" t="n">
-        <v>479.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>477.1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C24" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D24" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E24" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F24" t="n">
-        <v>3868.828</v>
+        <v>225.6</v>
       </c>
       <c r="G24" t="n">
-        <v>478.2833333333334</v>
+        <v>-1003.57357513</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>61</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L24" t="n">
-        <v>480.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>477.45</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C25" t="n">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D25" t="n">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E25" t="n">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>478.25</v>
+        <v>-1203.57357513</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>66</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>481.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>478.1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C26" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D26" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E26" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F26" t="n">
-        <v>308.02</v>
+        <v>97.06950000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>478.2333333333333</v>
+        <v>-1300.64307513</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>71</v>
-      </c>
-      <c r="K26" t="n">
-        <v>8.108108108108109</v>
-      </c>
-      <c r="L26" t="n">
-        <v>481.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C27" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D27" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E27" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F27" t="n">
-        <v>1165.6791</v>
+        <v>89.2479</v>
       </c>
       <c r="G27" t="n">
-        <v>478.2166666666666</v>
+        <v>-1389.89097513</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>71</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="L27" t="n">
-        <v>482.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C28" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D28" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E28" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F28" t="n">
-        <v>1730.2702</v>
+        <v>27</v>
       </c>
       <c r="G28" t="n">
-        <v>478.2166666666666</v>
+        <v>-1389.89097513</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>71</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-9.67741935483871</v>
-      </c>
-      <c r="L28" t="n">
-        <v>482.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>479.1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,10 +1390,10 @@
         <v>478</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>86.2</v>
       </c>
       <c r="G29" t="n">
-        <v>478.1666666666667</v>
+        <v>-1303.69097513</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1729,24 +1401,10 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>74</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>481.7</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>479.35</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C30" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D30" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E30" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F30" t="n">
-        <v>638</v>
+        <v>2311.8004</v>
       </c>
       <c r="G30" t="n">
-        <v>478.2166666666666</v>
+        <v>1008.10942487</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>77</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L30" t="n">
-        <v>482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>479.75</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C31" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D31" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E31" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F31" t="n">
-        <v>2383.5446</v>
+        <v>66.47369999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>478.2</v>
+        <v>941.6357248700001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>77</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L31" t="n">
-        <v>481.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>479.95</v>
-      </c>
-      <c r="N31" t="n">
-        <v>478.1333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,46 +1486,30 @@
         <v>478</v>
       </c>
       <c r="C32" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D32" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E32" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F32" t="n">
-        <v>480.39493605</v>
+        <v>33.5263</v>
       </c>
       <c r="G32" t="n">
-        <v>478.15</v>
+        <v>941.6357248700001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>83</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-30.43478260869566</v>
-      </c>
-      <c r="L32" t="n">
-        <v>480.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>480.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>478.0333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C33" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D33" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E33" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F33" t="n">
-        <v>93</v>
+        <v>447.8816</v>
       </c>
       <c r="G33" t="n">
-        <v>478.1</v>
+        <v>493.7541248700001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>83</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L33" t="n">
-        <v>480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>479.95</v>
-      </c>
-      <c r="N33" t="n">
-        <v>478.0666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C34" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D34" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E34" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>2049.253</v>
       </c>
       <c r="G34" t="n">
-        <v>478.05</v>
+        <v>493.7541248700001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>83</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-64.70588235294117</v>
-      </c>
-      <c r="L34" t="n">
-        <v>479.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>480.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>478.1</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C35" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D35" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E35" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>1075.4559</v>
       </c>
       <c r="G35" t="n">
-        <v>478</v>
+        <v>-581.7017751299998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>83</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L35" t="n">
-        <v>478.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>479.95</v>
-      </c>
-      <c r="N35" t="n">
-        <v>478.1666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C36" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D36" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E36" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F36" t="n">
-        <v>437.2869</v>
+        <v>10253.9946</v>
       </c>
       <c r="G36" t="n">
-        <v>478.05</v>
+        <v>-581.7017751299998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>89</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>478.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>480.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>478.4333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C37" t="n">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D37" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E37" t="n">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F37" t="n">
-        <v>444.4444</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>478.0833333333333</v>
+        <v>-581.7017751299998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>90</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L37" t="n">
-        <v>478.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>480.2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>478.6666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C38" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D38" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E38" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>8.9491</v>
       </c>
       <c r="G38" t="n">
-        <v>478.1166666666667</v>
+        <v>-572.7526751299997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2184,26 +1716,10 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>92</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>477.9</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>480.1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>478.7</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C39" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D39" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E39" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F39" t="n">
-        <v>279.5124</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>478.1333333333333</v>
+        <v>-573.7526751299997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2235,26 +1751,10 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>92</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L39" t="n">
-        <v>477.9</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="N39" t="n">
-        <v>478.8666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C40" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D40" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E40" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F40" t="n">
-        <v>1.005</v>
+        <v>84.8948</v>
       </c>
       <c r="G40" t="n">
-        <v>478.1833333333333</v>
+        <v>-573.7526751299997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>95</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>477.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>479.95</v>
-      </c>
-      <c r="N40" t="n">
-        <v>479.1333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2326,37 +1810,21 @@
         <v>477</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2.09643605</v>
       </c>
       <c r="G41" t="n">
-        <v>478.1666666666667</v>
+        <v>-571.6562390799998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>99</v>
-      </c>
-      <c r="K41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>477.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>479.45</v>
-      </c>
-      <c r="N41" t="n">
-        <v>479.1333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C42" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D42" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E42" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>478.1833333333333</v>
+        <v>-572.6562390799998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>103</v>
-      </c>
-      <c r="K42" t="n">
-        <v>30</v>
-      </c>
-      <c r="L42" t="n">
-        <v>478.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,37 +1880,21 @@
         <v>477</v>
       </c>
       <c r="F43" t="n">
-        <v>2108.1</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>478.1333333333333</v>
+        <v>-571.6562390799998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>107</v>
-      </c>
-      <c r="K43" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L43" t="n">
-        <v>478.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>479.15</v>
-      </c>
-      <c r="N43" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C44" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D44" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E44" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F44" t="n">
-        <v>2.5744</v>
+        <v>90.21080000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>478.0833333333333</v>
+        <v>-661.8670390799998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>107</v>
-      </c>
-      <c r="K44" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L44" t="n">
-        <v>478.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>478.95</v>
-      </c>
-      <c r="N44" t="n">
-        <v>479.5333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C45" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D45" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E45" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>298.6064</v>
       </c>
       <c r="G45" t="n">
-        <v>478.0166666666667</v>
+        <v>-363.2606390799998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>108</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L45" t="n">
-        <v>478.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>478.45</v>
-      </c>
-      <c r="N45" t="n">
-        <v>479.5</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,46 +1976,30 @@
         <v>477</v>
       </c>
       <c r="C46" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D46" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E46" t="n">
         <v>477</v>
       </c>
       <c r="F46" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>477.95</v>
+        <v>-362.2606390799998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>109</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L46" t="n">
-        <v>478.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N46" t="n">
-        <v>479.4666666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C47" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D47" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E47" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F47" t="n">
-        <v>18.3</v>
+        <v>241.54706395</v>
       </c>
       <c r="G47" t="n">
-        <v>477.95</v>
+        <v>-362.2606390799998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>113</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L47" t="n">
-        <v>478.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N47" t="n">
-        <v>479.5666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C48" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D48" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E48" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F48" t="n">
-        <v>188.5629</v>
+        <v>1331.3443</v>
       </c>
       <c r="G48" t="n">
-        <v>477.9666666666666</v>
+        <v>969.0836609200002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>113</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L48" t="n">
-        <v>478.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N48" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C49" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D49" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E49" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F49" t="n">
-        <v>9.523899999999999</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>477.9833333333333</v>
+        <v>970.0836609200002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>113</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>478.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>478.4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>479.5</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C50" t="n">
         <v>478</v>
       </c>
       <c r="D50" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E50" t="n">
         <v>478</v>
       </c>
       <c r="F50" t="n">
-        <v>444.4444</v>
+        <v>2022.7941</v>
       </c>
       <c r="G50" t="n">
-        <v>477.9666666666666</v>
+        <v>-1052.71043908</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2796,26 +2136,10 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>116</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L50" t="n">
-        <v>478.6</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N50" t="n">
-        <v>479.5</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,46 +2151,30 @@
         <v>481</v>
       </c>
       <c r="C51" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D51" t="n">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="E51" t="n">
         <v>481</v>
       </c>
       <c r="F51" t="n">
-        <v>2117.7451</v>
+        <v>312.02</v>
       </c>
       <c r="G51" t="n">
-        <v>478</v>
+        <v>-740.69043908</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>119</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N51" t="n">
-        <v>479.3</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C52" t="n">
         <v>482</v>
@@ -2884,40 +2192,24 @@
         <v>482</v>
       </c>
       <c r="E52" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F52" t="n">
-        <v>169.894</v>
+        <v>1672</v>
       </c>
       <c r="G52" t="n">
-        <v>478.0833333333333</v>
+        <v>-2412.69043908</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>120</v>
-      </c>
-      <c r="K52" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L52" t="n">
-        <v>479.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>478.6</v>
-      </c>
-      <c r="N52" t="n">
-        <v>479.3</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2929,46 +2221,30 @@
         <v>482</v>
       </c>
       <c r="C53" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D53" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E53" t="n">
         <v>482</v>
       </c>
       <c r="F53" t="n">
-        <v>2066.1157</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
-        <v>478.2</v>
+        <v>-2412.69043908</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>122</v>
-      </c>
-      <c r="K53" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L53" t="n">
-        <v>479.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>479.05</v>
-      </c>
-      <c r="N53" t="n">
-        <v>479.3666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C54" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D54" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E54" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F54" t="n">
-        <v>2.3498</v>
+        <v>3868.828</v>
       </c>
       <c r="G54" t="n">
-        <v>478.2833333333334</v>
+        <v>-6281.51843908</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>123</v>
-      </c>
-      <c r="K54" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L54" t="n">
-        <v>480.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>479.45</v>
-      </c>
-      <c r="N54" t="n">
-        <v>479.4333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C55" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D55" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E55" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F55" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>478.3333333333333</v>
+        <v>-6280.51843908</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>126</v>
-      </c>
-      <c r="K55" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L55" t="n">
-        <v>480.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>479.7</v>
-      </c>
-      <c r="N55" t="n">
-        <v>479.2333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C56" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D56" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E56" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>308.02</v>
       </c>
       <c r="G56" t="n">
-        <v>478.4</v>
+        <v>-6588.538439080001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>126</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L56" t="n">
-        <v>481.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>479.65</v>
-      </c>
-      <c r="N56" t="n">
-        <v>479.2</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C57" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D57" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E57" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F57" t="n">
-        <v>1301</v>
+        <v>1165.6791</v>
       </c>
       <c r="G57" t="n">
-        <v>478.5166666666667</v>
+        <v>-6588.538439080001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>128</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L57" t="n">
-        <v>481.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>479.75</v>
-      </c>
-      <c r="N57" t="n">
-        <v>479.2333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C58" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D58" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E58" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>1730.2702</v>
       </c>
       <c r="G58" t="n">
-        <v>478.65</v>
+        <v>-6588.538439080001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>129</v>
-      </c>
-      <c r="K58" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L58" t="n">
-        <v>481.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>480</v>
-      </c>
-      <c r="N58" t="n">
-        <v>479.3</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C59" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D59" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E59" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F59" t="n">
-        <v>1461.4906</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>478.7</v>
+        <v>-6589.538439080001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>131</v>
-      </c>
-      <c r="K59" t="n">
-        <v>20</v>
-      </c>
-      <c r="L59" t="n">
-        <v>481.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>480.15</v>
-      </c>
-      <c r="N59" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3295,37 +2475,21 @@
         <v>481</v>
       </c>
       <c r="F60" t="n">
-        <v>38.1363</v>
+        <v>638</v>
       </c>
       <c r="G60" t="n">
-        <v>478.7166666666666</v>
+        <v>-5951.538439080001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>131</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>481.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>480.15</v>
-      </c>
-      <c r="N60" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C61" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D61" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E61" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2383.5446</v>
       </c>
       <c r="G61" t="n">
-        <v>478.7833333333334</v>
+        <v>-5951.538439080001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>132</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>481.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>480.4</v>
-      </c>
-      <c r="N61" t="n">
-        <v>479.4333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C62" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D62" t="n">
         <v>480</v>
       </c>
       <c r="E62" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F62" t="n">
-        <v>15.6682</v>
+        <v>480.39493605</v>
       </c>
       <c r="G62" t="n">
-        <v>478.8166666666667</v>
+        <v>-6431.933375130001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>134</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>481.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>480.35</v>
-      </c>
-      <c r="N62" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C63" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D63" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E63" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="G63" t="n">
-        <v>478.9</v>
+        <v>-6431.933375130001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>135</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L63" t="n">
-        <v>481.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>480.45</v>
-      </c>
-      <c r="N63" t="n">
-        <v>479.7333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C64" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D64" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E64" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F64" t="n">
-        <v>643.1485</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>478.9833333333333</v>
+        <v>-6431.933375130001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>135</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L64" t="n">
-        <v>480.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>480.55</v>
-      </c>
-      <c r="N64" t="n">
-        <v>479.8666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C65" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D65" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E65" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F65" t="n">
-        <v>14.3532</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>479.0833333333333</v>
+        <v>-6431.933375130001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>135</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L65" t="n">
-        <v>480.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>480.7</v>
-      </c>
-      <c r="N65" t="n">
-        <v>480</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,49 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C66" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D66" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E66" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F66" t="n">
-        <v>1886.6464</v>
+        <v>437.2869</v>
       </c>
       <c r="G66" t="n">
-        <v>479.15</v>
+        <v>-5994.646475130001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>137</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L66" t="n">
-        <v>480.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>480.7</v>
-      </c>
-      <c r="N66" t="n">
-        <v>479.8666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C67" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D67" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E67" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F67" t="n">
-        <v>260.3</v>
+        <v>444.4444</v>
       </c>
       <c r="G67" t="n">
-        <v>479.25</v>
+        <v>-6439.090875130001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>139</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L67" t="n">
-        <v>480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>480.6</v>
-      </c>
-      <c r="N67" t="n">
-        <v>479.8333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C68" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D68" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E68" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F68" t="n">
-        <v>1359.1</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>479.3333333333333</v>
+        <v>-6440.090875130001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>142</v>
-      </c>
-      <c r="K68" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L68" t="n">
-        <v>479.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>480.65</v>
-      </c>
-      <c r="N68" t="n">
-        <v>479.9666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C69" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D69" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E69" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F69" t="n">
-        <v>111.7432</v>
+        <v>279.5124</v>
       </c>
       <c r="G69" t="n">
-        <v>479.4666666666666</v>
+        <v>-6440.090875130001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>143</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>479.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>480.65</v>
-      </c>
-      <c r="N69" t="n">
-        <v>480.0666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C70" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D70" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E70" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F70" t="n">
-        <v>1852.2416</v>
+        <v>1.005</v>
       </c>
       <c r="G70" t="n">
-        <v>479.5833333333333</v>
+        <v>-6439.085875130001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>144</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L70" t="n">
-        <v>479.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>480.75</v>
-      </c>
-      <c r="N70" t="n">
-        <v>480.0333333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C71" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D71" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E71" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>479.65</v>
+        <v>-6440.085875130001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>145</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L71" t="n">
-        <v>479.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>480.75</v>
-      </c>
-      <c r="N71" t="n">
-        <v>480.1666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3910,34 +2898,18 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>479.7833333333334</v>
+        <v>-6439.085875130001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>145</v>
-      </c>
-      <c r="K72" t="n">
-        <v>20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>479.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>480.7</v>
-      </c>
-      <c r="N72" t="n">
-        <v>480.1666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C73" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D73" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E73" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2108.1</v>
       </c>
       <c r="G73" t="n">
-        <v>479.85</v>
+        <v>-8547.185875130001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>145</v>
-      </c>
-      <c r="K73" t="n">
-        <v>20</v>
-      </c>
-      <c r="L73" t="n">
-        <v>480</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>480.55</v>
-      </c>
-      <c r="N73" t="n">
-        <v>480.3</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C74" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D74" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E74" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2.5744</v>
       </c>
       <c r="G74" t="n">
-        <v>479.9833333333333</v>
+        <v>-8547.185875130001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>145</v>
-      </c>
-      <c r="K74" t="n">
-        <v>20</v>
-      </c>
-      <c r="L74" t="n">
-        <v>480.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>480.45</v>
-      </c>
-      <c r="N74" t="n">
-        <v>480.4333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C75" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D75" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E75" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F75" t="n">
-        <v>169.4145</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>480.0333333333334</v>
+        <v>-8548.185875130001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>146</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L75" t="n">
-        <v>480.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>480.45</v>
-      </c>
-      <c r="N75" t="n">
-        <v>480.5666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4111,37 +3035,21 @@
         <v>477</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G76" t="n">
-        <v>480.0166666666667</v>
+        <v>-8476.185875130001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>149</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L76" t="n">
-        <v>480.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>480.3</v>
-      </c>
-      <c r="N76" t="n">
-        <v>480.5666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,7 +3058,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C77" t="n">
         <v>481</v>
@@ -4159,40 +3067,30 @@
         <v>481</v>
       </c>
       <c r="E77" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F77" t="n">
-        <v>1.9667</v>
+        <v>18.3</v>
       </c>
       <c r="G77" t="n">
-        <v>480.0666666666667</v>
+        <v>-8457.885875130001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>153</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L77" t="n">
-        <v>480.5</v>
+        <v>477</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>480.25</v>
-      </c>
-      <c r="N77" t="n">
-        <v>480.5666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,37 +3111,27 @@
         <v>481</v>
       </c>
       <c r="F78" t="n">
-        <v>13.5135</v>
+        <v>188.5629</v>
       </c>
       <c r="G78" t="n">
-        <v>480.0833333333333</v>
+        <v>-8457.885875130001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>153</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>480.4</v>
+        <v>481</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>480.15</v>
-      </c>
-      <c r="N78" t="n">
-        <v>480.5666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,22 +3140,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C79" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D79" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E79" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F79" t="n">
-        <v>93.90000000000001</v>
+        <v>9.523899999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>479.9833333333333</v>
+        <v>-8457.885875130001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4275,26 +3163,14 @@
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>156</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L79" t="n">
-        <v>480.1</v>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>480</v>
-      </c>
-      <c r="N79" t="n">
-        <v>480.4666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3179,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C80" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D80" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E80" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>444.4444</v>
       </c>
       <c r="G80" t="n">
-        <v>479.9666666666666</v>
+        <v>-8902.330275130002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>157</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L80" t="n">
-        <v>479.8</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="N80" t="n">
-        <v>480.4333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,49 +3218,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C81" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D81" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E81" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>2117.7451</v>
       </c>
       <c r="G81" t="n">
-        <v>479.8</v>
+        <v>-6784.585175130002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>157</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>479.4</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>479.55</v>
-      </c>
-      <c r="N81" t="n">
-        <v>480.3</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3257,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C82" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D82" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E82" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>169.894</v>
       </c>
       <c r="G82" t="n">
-        <v>479.7166666666666</v>
+        <v>-6614.691175130001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>157</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>479</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="N82" t="n">
-        <v>480.1333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3296,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C83" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D83" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E83" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>2066.1157</v>
       </c>
       <c r="G83" t="n">
-        <v>479.6833333333333</v>
+        <v>-4548.575475130001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>160</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L83" t="n">
-        <v>478.9</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>479.45</v>
-      </c>
-      <c r="N83" t="n">
-        <v>480</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3335,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C84" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D84" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E84" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F84" t="n">
-        <v>2.9562</v>
+        <v>2.3498</v>
       </c>
       <c r="G84" t="n">
-        <v>479.6666666666667</v>
+        <v>-4550.925275130001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>160</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>478.8</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>479.5</v>
-      </c>
-      <c r="N84" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3374,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" t="n">
         <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E85" t="n">
         <v>480</v>
       </c>
       <c r="F85" t="n">
-        <v>293.3438</v>
+        <v>130</v>
       </c>
       <c r="G85" t="n">
-        <v>479.5666666666667</v>
+        <v>-4680.925275130001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>160</v>
-      </c>
-      <c r="K85" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L85" t="n">
-        <v>478.8</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>479.55</v>
-      </c>
-      <c r="N85" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,22 +3413,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C86" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D86" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E86" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G86" t="n">
-        <v>479.5166666666667</v>
+        <v>-4680.925275130001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4632,26 +3436,14 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>162</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>478.9</v>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="N86" t="n">
-        <v>479.8333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,53 +3452,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C87" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D87" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E87" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F87" t="n">
-        <v>139</v>
+        <v>1301</v>
       </c>
       <c r="G87" t="n">
-        <v>479.5</v>
+        <v>-3379.925275130001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>164</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L87" t="n">
-        <v>478.8</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>479.65</v>
-      </c>
-      <c r="N87" t="n">
-        <v>479.7666666666667</v>
-      </c>
-      <c r="O87" t="n">
-        <v>478</v>
-      </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="n">
-        <v>478</v>
-      </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4715,57 +3491,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C88" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D88" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E88" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F88" t="n">
-        <v>348.2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>479.4833333333333</v>
+        <v>-3378.925275130001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>164</v>
-      </c>
-      <c r="K88" t="n">
-        <v>25</v>
-      </c>
-      <c r="L88" t="n">
-        <v>478.7</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>479.55</v>
-      </c>
-      <c r="N88" t="n">
-        <v>479.6666666666667</v>
-      </c>
-      <c r="O88" t="n">
-        <v>480</v>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>478</v>
-      </c>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,57 +3530,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C89" t="n">
         <v>481</v>
       </c>
       <c r="D89" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E89" t="n">
         <v>481</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>1461.4906</v>
       </c>
       <c r="G89" t="n">
-        <v>479.5333333333334</v>
+        <v>-4840.415875130001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>165</v>
-      </c>
-      <c r="K89" t="n">
-        <v>50</v>
-      </c>
-      <c r="L89" t="n">
-        <v>479</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>479.55</v>
-      </c>
-      <c r="N89" t="n">
-        <v>479.6666666666667</v>
-      </c>
-      <c r="O89" t="n">
-        <v>480</v>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>478</v>
-      </c>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,45 +3581,25 @@
         <v>481</v>
       </c>
       <c r="F90" t="n">
-        <v>1056.8521</v>
+        <v>38.1363</v>
       </c>
       <c r="G90" t="n">
-        <v>479.5333333333334</v>
+        <v>-4840.415875130001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>165</v>
-      </c>
-      <c r="K90" t="n">
-        <v>50</v>
-      </c>
-      <c r="L90" t="n">
-        <v>479.4</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="N90" t="n">
-        <v>479.6666666666667</v>
-      </c>
-      <c r="O90" t="n">
-        <v>481</v>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>478</v>
-      </c>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,57 +3608,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D91" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E91" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F91" t="n">
-        <v>424.5262</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>479.5333333333334</v>
+        <v>-4839.415875130001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>165</v>
-      </c>
-      <c r="K91" t="n">
-        <v>50</v>
-      </c>
-      <c r="L91" t="n">
-        <v>479.8</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="N91" t="n">
-        <v>479.6333333333333</v>
-      </c>
-      <c r="O91" t="n">
-        <v>481</v>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>478</v>
-      </c>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4951,57 +3647,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C92" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D92" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E92" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F92" t="n">
-        <v>133.5705</v>
+        <v>15.6682</v>
       </c>
       <c r="G92" t="n">
-        <v>479.65</v>
+        <v>-4855.084075130001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>166</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>480.3</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>479.65</v>
-      </c>
-      <c r="N92" t="n">
-        <v>479.7</v>
-      </c>
-      <c r="O92" t="n">
-        <v>481</v>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>478</v>
-      </c>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5013,52 +3689,34 @@
         <v>480</v>
       </c>
       <c r="C93" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D93" t="n">
         <v>480</v>
       </c>
       <c r="E93" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F93" t="n">
-        <v>500.3258</v>
+        <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>479.7333333333333</v>
+        <v>-4860.084075130001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>168</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>480.3</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="N93" t="n">
-        <v>479.7333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
-        <v>478</v>
-      </c>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,53 +3725,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C94" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D94" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E94" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F94" t="n">
-        <v>1185.0268</v>
+        <v>643.1485</v>
       </c>
       <c r="G94" t="n">
-        <v>479.75</v>
+        <v>-4860.084075130001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>172</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>479.9</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>479.35</v>
-      </c>
-      <c r="N94" t="n">
-        <v>479.6333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="n">
-        <v>494.7</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>478</v>
-      </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,55 +3764,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C95" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D95" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E95" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F95" t="n">
-        <v>462</v>
+        <v>14.3532</v>
       </c>
       <c r="G95" t="n">
-        <v>479.8333333333333</v>
+        <v>-4860.084075130001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>176</v>
-      </c>
-      <c r="K95" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L95" t="n">
-        <v>479.9</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>479.35</v>
-      </c>
-      <c r="N95" t="n">
-        <v>479.6666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="n">
-        <v>478</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5179,55 +3803,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C96" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D96" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E96" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F96" t="n">
-        <v>66.09999999999999</v>
+        <v>1886.6464</v>
       </c>
       <c r="G96" t="n">
-        <v>479.8</v>
+        <v>-6746.730475130002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>177</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L96" t="n">
-        <v>480</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>479.45</v>
-      </c>
-      <c r="N96" t="n">
-        <v>479.7333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="n">
-        <v>478</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,52 +3845,34 @@
         <v>479</v>
       </c>
       <c r="C97" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D97" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E97" t="n">
         <v>479</v>
       </c>
       <c r="F97" t="n">
-        <v>4422.4</v>
+        <v>260.3</v>
       </c>
       <c r="G97" t="n">
-        <v>479.8</v>
+        <v>-6486.430475130001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>178</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>480</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="N97" t="n">
-        <v>479.7666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="n">
-        <v>478</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,55 +3881,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C98" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D98" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E98" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F98" t="n">
-        <v>2697</v>
+        <v>1359.1</v>
       </c>
       <c r="G98" t="n">
-        <v>479.8333333333333</v>
+        <v>-5127.330475130002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>178</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L98" t="n">
-        <v>480</v>
+        <v>479</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>479.35</v>
-      </c>
-      <c r="N98" t="n">
-        <v>479.7</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="n">
-        <v>478</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5350,55 +3922,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C99" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D99" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E99" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F99" t="n">
-        <v>1843</v>
+        <v>111.7432</v>
       </c>
       <c r="G99" t="n">
-        <v>479.8666666666667</v>
+        <v>-5239.073675130002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>178</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L99" t="n">
-        <v>479.9</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>479.45</v>
-      </c>
-      <c r="N99" t="n">
-        <v>479.6666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="n">
-        <v>478</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5407,7 +3961,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C100" t="n">
         <v>480</v>
@@ -5416,46 +3970,771 @@
         <v>480</v>
       </c>
       <c r="E100" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>1852.2416</v>
       </c>
       <c r="G100" t="n">
-        <v>479.85</v>
+        <v>-7091.315275130002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>178</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L100" t="n">
-        <v>479.8</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="N100" t="n">
-        <v>479.6666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="n">
-        <v>478</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>480</v>
+      </c>
+      <c r="C101" t="n">
+        <v>481</v>
+      </c>
+      <c r="D101" t="n">
+        <v>481</v>
+      </c>
+      <c r="E101" t="n">
+        <v>480</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>481</v>
+      </c>
+      <c r="C102" t="n">
+        <v>481</v>
+      </c>
+      <c r="D102" t="n">
+        <v>481</v>
+      </c>
+      <c r="E102" t="n">
+        <v>481</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>481</v>
+      </c>
+      <c r="C103" t="n">
+        <v>481</v>
+      </c>
+      <c r="D103" t="n">
+        <v>481</v>
+      </c>
+      <c r="E103" t="n">
+        <v>481</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>481</v>
+      </c>
+      <c r="C104" t="n">
+        <v>481</v>
+      </c>
+      <c r="D104" t="n">
+        <v>481</v>
+      </c>
+      <c r="E104" t="n">
+        <v>481</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>480</v>
+      </c>
+      <c r="C105" t="n">
+        <v>480</v>
+      </c>
+      <c r="D105" t="n">
+        <v>480</v>
+      </c>
+      <c r="E105" t="n">
+        <v>480</v>
+      </c>
+      <c r="F105" t="n">
+        <v>169.4145</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-7254.729775130002</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>477</v>
+      </c>
+      <c r="C106" t="n">
+        <v>477</v>
+      </c>
+      <c r="D106" t="n">
+        <v>477</v>
+      </c>
+      <c r="E106" t="n">
+        <v>477</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-7255.729775130002</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>481</v>
+      </c>
+      <c r="C107" t="n">
+        <v>481</v>
+      </c>
+      <c r="D107" t="n">
+        <v>481</v>
+      </c>
+      <c r="E107" t="n">
+        <v>481</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.9667</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-7253.763075130002</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>481</v>
+      </c>
+      <c r="C108" t="n">
+        <v>481</v>
+      </c>
+      <c r="D108" t="n">
+        <v>481</v>
+      </c>
+      <c r="E108" t="n">
+        <v>481</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13.5135</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-7253.763075130002</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>478</v>
+      </c>
+      <c r="C109" t="n">
+        <v>478</v>
+      </c>
+      <c r="D109" t="n">
+        <v>478</v>
+      </c>
+      <c r="E109" t="n">
+        <v>478</v>
+      </c>
+      <c r="F109" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-7347.663075130002</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>477</v>
+      </c>
+      <c r="C110" t="n">
+        <v>477</v>
+      </c>
+      <c r="D110" t="n">
+        <v>477</v>
+      </c>
+      <c r="E110" t="n">
+        <v>477</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>477</v>
+      </c>
+      <c r="C111" t="n">
+        <v>477</v>
+      </c>
+      <c r="D111" t="n">
+        <v>477</v>
+      </c>
+      <c r="E111" t="n">
+        <v>477</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>477</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>477</v>
+      </c>
+      <c r="C112" t="n">
+        <v>477</v>
+      </c>
+      <c r="D112" t="n">
+        <v>477</v>
+      </c>
+      <c r="E112" t="n">
+        <v>477</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>480</v>
+      </c>
+      <c r="C113" t="n">
+        <v>480</v>
+      </c>
+      <c r="D113" t="n">
+        <v>480</v>
+      </c>
+      <c r="E113" t="n">
+        <v>480</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>477</v>
+      </c>
+      <c r="C114" t="n">
+        <v>480</v>
+      </c>
+      <c r="D114" t="n">
+        <v>480</v>
+      </c>
+      <c r="E114" t="n">
+        <v>477</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.9562</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>480</v>
+      </c>
+      <c r="C115" t="n">
+        <v>480</v>
+      </c>
+      <c r="D115" t="n">
+        <v>480</v>
+      </c>
+      <c r="E115" t="n">
+        <v>480</v>
+      </c>
+      <c r="F115" t="n">
+        <v>293.3438</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>478</v>
+      </c>
+      <c r="C116" t="n">
+        <v>478</v>
+      </c>
+      <c r="D116" t="n">
+        <v>478</v>
+      </c>
+      <c r="E116" t="n">
+        <v>478</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-7346.663075130002</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>480</v>
+      </c>
+      <c r="C117" t="n">
+        <v>480</v>
+      </c>
+      <c r="D117" t="n">
+        <v>480</v>
+      </c>
+      <c r="E117" t="n">
+        <v>480</v>
+      </c>
+      <c r="F117" t="n">
+        <v>139</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-7207.663075130002</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>480</v>
+      </c>
+      <c r="C118" t="n">
+        <v>480</v>
+      </c>
+      <c r="D118" t="n">
+        <v>481</v>
+      </c>
+      <c r="E118" t="n">
+        <v>480</v>
+      </c>
+      <c r="F118" t="n">
+        <v>348.2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-7207.663075130002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>481</v>
+      </c>
+      <c r="C119" t="n">
+        <v>481</v>
+      </c>
+      <c r="D119" t="n">
+        <v>481</v>
+      </c>
+      <c r="E119" t="n">
+        <v>481</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-7206.663075130002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3093,6 +3173,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3134,6 +3215,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3173,6 +3255,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3212,6 +3295,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3251,6 +3335,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3290,6 +3375,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3329,6 +3415,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3368,6 +3455,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3407,6 +3495,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3446,6 +3535,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3485,6 +3575,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3524,6 +3615,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3563,6 +3655,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3602,6 +3695,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3641,6 +3735,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3680,6 +3775,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3719,6 +3815,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3758,6 +3855,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3797,6 +3895,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3836,6 +3935,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3875,6 +3975,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3916,6 +4017,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3955,6 +4057,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3994,6 +4097,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4033,6 +4137,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4072,6 +4177,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4111,6 +4217,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,6 +4257,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4189,6 +4297,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4228,6 +4337,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4267,6 +4377,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4306,6 +4417,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4345,6 +4457,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4384,6 +4497,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4425,6 +4539,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4464,6 +4579,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4503,6 +4619,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4542,6 +4659,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4581,6 +4699,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4620,6 +4739,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4659,6 +4779,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4698,6 +4819,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4737,6 +4859,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C2" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D2" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E2" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2.39</v>
       </c>
       <c r="G2" t="n">
-        <v>-9986.257575129999</v>
+        <v>4006.14960985</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C3" t="n">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D3" t="n">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E3" t="n">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F3" t="n">
-        <v>2569.0116</v>
+        <v>4.33673469</v>
       </c>
       <c r="G3" t="n">
-        <v>-9986.257575129999</v>
+        <v>4010.48634454</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C4" t="n">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D4" t="n">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="E4" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F4" t="n">
-        <v>1230.832</v>
+        <v>11.88371967</v>
       </c>
       <c r="G4" t="n">
-        <v>-9986.257575129999</v>
+        <v>3998.60262487</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C5" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D5" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E5" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F5" t="n">
-        <v>726.0869</v>
+        <v>8.9925</v>
       </c>
       <c r="G5" t="n">
-        <v>-9986.257575129999</v>
+        <v>3989.61012487</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C6" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D6" t="n">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E6" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F6" t="n">
-        <v>710.2380000000001</v>
+        <v>11.93389715</v>
       </c>
       <c r="G6" t="n">
-        <v>-9986.257575129999</v>
+        <v>3989.61012487</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C7" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D7" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E7" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F7" t="n">
-        <v>66.3261</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-9986.257575129999</v>
+        <v>3989.61012487</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C8" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D8" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E8" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F8" t="n">
-        <v>624.6164</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>-10610.87397513</v>
+        <v>3989.61012487</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C9" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D9" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E9" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F9" t="n">
-        <v>7707.0117</v>
+        <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>-2903.86227513</v>
+        <v>3989.61012487</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C10" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D10" t="n">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E10" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F10" t="n">
-        <v>359.4097</v>
+        <v>2835.0663</v>
       </c>
       <c r="G10" t="n">
-        <v>-2544.45257513</v>
+        <v>1154.54382487</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C11" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D11" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E11" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001</v>
+        <v>1983.8398</v>
       </c>
       <c r="G11" t="n">
-        <v>-2544.45257513</v>
+        <v>3138.38362487</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C12" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D12" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E12" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F12" t="n">
-        <v>2102.648</v>
+        <v>292.9974</v>
       </c>
       <c r="G12" t="n">
-        <v>-441.8045751299996</v>
+        <v>2845.38622487</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C13" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E13" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F13" t="n">
-        <v>221.2533</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-441.8045751299996</v>
+        <v>2846.38622487</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C14" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D14" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E14" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F14" t="n">
-        <v>3472.0191</v>
+        <v>717.6102</v>
       </c>
       <c r="G14" t="n">
-        <v>-441.8045751299996</v>
+        <v>2128.77602487</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C15" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D15" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E15" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F15" t="n">
-        <v>4.3494</v>
+        <v>14.08</v>
       </c>
       <c r="G15" t="n">
-        <v>-441.8045751299996</v>
+        <v>2142.85602487</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C16" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D16" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E16" t="n">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F16" t="n">
-        <v>708.3309</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>266.5263248700004</v>
+        <v>2139.85602487</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C17" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D17" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E17" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>266.5263248700004</v>
+        <v>2138.85602487</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C18" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D18" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E18" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F18" t="n">
-        <v>693</v>
+        <v>471.23</v>
       </c>
       <c r="G18" t="n">
-        <v>-426.4736751299996</v>
+        <v>2610.08602487</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C19" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D19" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E19" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F19" t="n">
-        <v>507</v>
+        <v>1422.0679</v>
       </c>
       <c r="G19" t="n">
-        <v>-426.4736751299996</v>
+        <v>1188.01812487</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C20" t="n">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D20" t="n">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="E20" t="n">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="F20" t="n">
-        <v>125.9999</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>-552.4735751299996</v>
+        <v>1238.01812487</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C21" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D21" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E21" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F21" t="n">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>-552.4735751299996</v>
+        <v>1237.01812487</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C22" t="n">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D22" t="n">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E22" t="n">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="F22" t="n">
-        <v>676.7</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>-1229.17357513</v>
+        <v>1239.01812487</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C23" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D23" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E23" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F23" t="n">
-        <v>886.9446</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-1229.17357513</v>
+        <v>1238.01812487</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C24" t="n">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D24" t="n">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E24" t="n">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F24" t="n">
-        <v>225.6</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-1003.57357513</v>
+        <v>1239.01812487</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C25" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D25" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E25" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>2157.7272</v>
       </c>
       <c r="G25" t="n">
-        <v>-1203.57357513</v>
+        <v>-918.7090751300002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C26" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D26" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E26" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F26" t="n">
-        <v>97.06950000000001</v>
+        <v>312.9548</v>
       </c>
       <c r="G26" t="n">
-        <v>-1300.64307513</v>
+        <v>-918.7090751300002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C27" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D27" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E27" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F27" t="n">
-        <v>89.2479</v>
+        <v>1120</v>
       </c>
       <c r="G27" t="n">
-        <v>-1389.89097513</v>
+        <v>-2038.70907513</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C28" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D28" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E28" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F28" t="n">
-        <v>27</v>
+        <v>172.3234</v>
       </c>
       <c r="G28" t="n">
-        <v>-1389.89097513</v>
+        <v>-2038.70907513</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C29" t="n">
         <v>478</v>
       </c>
       <c r="D29" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E29" t="n">
         <v>478</v>
       </c>
       <c r="F29" t="n">
-        <v>86.2</v>
+        <v>7947.5485</v>
       </c>
       <c r="G29" t="n">
-        <v>-1303.69097513</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C30" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D30" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E30" t="n">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="F30" t="n">
-        <v>2311.8004</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1008.10942487</v>
+        <v>-9985.257575129999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>478</v>
       </c>
       <c r="F31" t="n">
-        <v>66.47369999999999</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>941.6357248700001</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1524,16 +1524,16 @@
         <v>478</v>
       </c>
       <c r="D32" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
         <v>478</v>
       </c>
       <c r="F32" t="n">
-        <v>33.5263</v>
+        <v>2569.0116</v>
       </c>
       <c r="G32" t="n">
-        <v>941.6357248700001</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C33" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D33" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E33" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F33" t="n">
-        <v>447.8816</v>
+        <v>1230.832</v>
       </c>
       <c r="G33" t="n">
-        <v>493.7541248700001</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C34" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D34" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E34" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F34" t="n">
-        <v>2049.253</v>
+        <v>726.0869</v>
       </c>
       <c r="G34" t="n">
-        <v>493.7541248700001</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C35" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D35" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E35" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F35" t="n">
-        <v>1075.4559</v>
+        <v>710.2380000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-581.7017751299998</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C36" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D36" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E36" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F36" t="n">
-        <v>10253.9946</v>
+        <v>66.3261</v>
       </c>
       <c r="G36" t="n">
-        <v>-581.7017751299998</v>
+        <v>-9986.257575129999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C37" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D37" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E37" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>624.6164</v>
       </c>
       <c r="G37" t="n">
-        <v>-581.7017751299998</v>
+        <v>-10610.87397513</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C38" t="n">
         <v>477</v>
@@ -1743,13 +1743,13 @@
         <v>477</v>
       </c>
       <c r="E38" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F38" t="n">
-        <v>8.9491</v>
+        <v>7707.0117</v>
       </c>
       <c r="G38" t="n">
-        <v>-572.7526751299997</v>
+        <v>-2903.86227513</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C39" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D39" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E39" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>359.4097</v>
       </c>
       <c r="G39" t="n">
-        <v>-573.7526751299997</v>
+        <v>-2544.45257513</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C40" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D40" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E40" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F40" t="n">
-        <v>84.8948</v>
+        <v>0.0001</v>
       </c>
       <c r="G40" t="n">
-        <v>-573.7526751299997</v>
+        <v>-2544.45257513</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C41" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D41" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E41" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F41" t="n">
-        <v>2.09643605</v>
+        <v>2102.648</v>
       </c>
       <c r="G41" t="n">
-        <v>-571.6562390799998</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C42" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D42" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="E42" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>221.2533</v>
       </c>
       <c r="G42" t="n">
-        <v>-572.6562390799998</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C43" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D43" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E43" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3472.0191</v>
       </c>
       <c r="G43" t="n">
-        <v>-571.6562390799998</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C44" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D44" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E44" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="F44" t="n">
-        <v>90.21080000000001</v>
+        <v>4.3494</v>
       </c>
       <c r="G44" t="n">
-        <v>-661.8670390799998</v>
+        <v>-441.8045751299996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C45" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D45" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E45" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F45" t="n">
-        <v>298.6064</v>
+        <v>708.3309</v>
       </c>
       <c r="G45" t="n">
-        <v>-363.2606390799998</v>
+        <v>266.5263248700004</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C46" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D46" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E46" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G46" t="n">
-        <v>-362.2606390799998</v>
+        <v>266.5263248700004</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C47" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D47" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E47" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F47" t="n">
-        <v>241.54706395</v>
+        <v>693</v>
       </c>
       <c r="G47" t="n">
-        <v>-362.2606390799998</v>
+        <v>-426.4736751299996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C48" t="n">
         <v>480</v>
@@ -2103,13 +2103,13 @@
         <v>480</v>
       </c>
       <c r="E48" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F48" t="n">
-        <v>1331.3443</v>
+        <v>507</v>
       </c>
       <c r="G48" t="n">
-        <v>969.0836609200002</v>
+        <v>-426.4736751299996</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C49" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D49" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E49" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>125.9999</v>
       </c>
       <c r="G49" t="n">
-        <v>970.0836609200002</v>
+        <v>-552.4735751299996</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C50" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D50" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E50" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F50" t="n">
-        <v>2022.7941</v>
+        <v>324</v>
       </c>
       <c r="G50" t="n">
-        <v>-1052.71043908</v>
+        <v>-552.4735751299996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C51" t="n">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E51" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F51" t="n">
-        <v>312.02</v>
+        <v>676.7</v>
       </c>
       <c r="G51" t="n">
-        <v>-740.69043908</v>
+        <v>-1229.17357513</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C52" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D52" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E52" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F52" t="n">
-        <v>1672</v>
+        <v>886.9446</v>
       </c>
       <c r="G52" t="n">
-        <v>-2412.69043908</v>
+        <v>-1229.17357513</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C53" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D53" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E53" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F53" t="n">
-        <v>102</v>
+        <v>225.6</v>
       </c>
       <c r="G53" t="n">
-        <v>-2412.69043908</v>
+        <v>-1003.57357513</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C54" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D54" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E54" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F54" t="n">
-        <v>3868.828</v>
+        <v>200</v>
       </c>
       <c r="G54" t="n">
-        <v>-6281.51843908</v>
+        <v>-1203.57357513</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C55" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D55" t="n">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E55" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>97.06950000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-6280.51843908</v>
+        <v>-1300.64307513</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C56" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D56" t="n">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E56" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F56" t="n">
-        <v>308.02</v>
+        <v>89.2479</v>
       </c>
       <c r="G56" t="n">
-        <v>-6588.538439080001</v>
+        <v>-1389.89097513</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C57" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D57" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F57" t="n">
-        <v>1165.6791</v>
+        <v>27</v>
       </c>
       <c r="G57" t="n">
-        <v>-6588.538439080001</v>
+        <v>-1389.89097513</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C58" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D58" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E58" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F58" t="n">
-        <v>1730.2702</v>
+        <v>86.2</v>
       </c>
       <c r="G58" t="n">
-        <v>-6588.538439080001</v>
+        <v>-1303.69097513</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C59" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D59" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E59" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2311.8004</v>
       </c>
       <c r="G59" t="n">
-        <v>-6589.538439080001</v>
+        <v>1008.10942487</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C60" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D60" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E60" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F60" t="n">
-        <v>638</v>
+        <v>66.47369999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-5951.538439080001</v>
+        <v>941.6357248700001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C61" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D61" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E61" t="n">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F61" t="n">
-        <v>2383.5446</v>
+        <v>33.5263</v>
       </c>
       <c r="G61" t="n">
-        <v>-5951.538439080001</v>
+        <v>941.6357248700001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C62" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D62" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E62" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F62" t="n">
-        <v>480.39493605</v>
+        <v>447.8816</v>
       </c>
       <c r="G62" t="n">
-        <v>-6431.933375130001</v>
+        <v>493.7541248700001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C63" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D63" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E63" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F63" t="n">
-        <v>93</v>
+        <v>2049.253</v>
       </c>
       <c r="G63" t="n">
-        <v>-6431.933375130001</v>
+        <v>493.7541248700001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C64" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D64" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E64" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>1075.4559</v>
       </c>
       <c r="G64" t="n">
-        <v>-6431.933375130001</v>
+        <v>-581.7017751299998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C65" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D65" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E65" t="n">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>10253.9946</v>
       </c>
       <c r="G65" t="n">
-        <v>-6431.933375130001</v>
+        <v>-581.7017751299998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C66" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D66" t="n">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E66" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F66" t="n">
-        <v>437.2869</v>
+        <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>-5994.646475130001</v>
+        <v>-581.7017751299998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C67" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D67" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E67" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F67" t="n">
-        <v>444.4444</v>
+        <v>8.9491</v>
       </c>
       <c r="G67" t="n">
-        <v>-6439.090875130001</v>
+        <v>-572.7526751299997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C68" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D68" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E68" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-6440.090875130001</v>
+        <v>-573.7526751299997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C69" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D69" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E69" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F69" t="n">
-        <v>279.5124</v>
+        <v>84.8948</v>
       </c>
       <c r="G69" t="n">
-        <v>-6440.090875130001</v>
+        <v>-573.7526751299997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C70" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D70" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E70" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F70" t="n">
-        <v>1.005</v>
+        <v>2.09643605</v>
       </c>
       <c r="G70" t="n">
-        <v>-6439.085875130001</v>
+        <v>-571.6562390799998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C71" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D71" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E71" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-6440.085875130001</v>
+        <v>-572.6562390799998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C72" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D72" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E72" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-6439.085875130001</v>
+        <v>-571.6562390799998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C73" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D73" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E73" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F73" t="n">
-        <v>2108.1</v>
+        <v>90.21080000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-8547.185875130001</v>
+        <v>-661.8670390799998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3042,10 +3042,10 @@
         <v>477</v>
       </c>
       <c r="F74" t="n">
-        <v>2.5744</v>
+        <v>298.6064</v>
       </c>
       <c r="G74" t="n">
-        <v>-8547.185875130001</v>
+        <v>-363.2606390799998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C75" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D75" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E75" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-8548.185875130001</v>
+        <v>-362.2606390799998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C76" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D76" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E76" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F76" t="n">
-        <v>72</v>
+        <v>241.54706395</v>
       </c>
       <c r="G76" t="n">
-        <v>-8476.185875130001</v>
+        <v>-362.2606390799998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,1202 +3138,1104 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>479</v>
+      </c>
+      <c r="C77" t="n">
+        <v>480</v>
+      </c>
+      <c r="D77" t="n">
+        <v>480</v>
+      </c>
+      <c r="E77" t="n">
+        <v>479</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1331.3443</v>
+      </c>
+      <c r="G77" t="n">
+        <v>969.0836609200002</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>484</v>
+      </c>
+      <c r="C78" t="n">
+        <v>484</v>
+      </c>
+      <c r="D78" t="n">
+        <v>484</v>
+      </c>
+      <c r="E78" t="n">
+        <v>484</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>970.0836609200002</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>484</v>
+      </c>
+      <c r="C79" t="n">
+        <v>478</v>
+      </c>
+      <c r="D79" t="n">
+        <v>484</v>
+      </c>
+      <c r="E79" t="n">
+        <v>478</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2022.7941</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1052.71043908</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>481</v>
+      </c>
+      <c r="C80" t="n">
+        <v>487</v>
+      </c>
+      <c r="D80" t="n">
+        <v>488</v>
+      </c>
+      <c r="E80" t="n">
+        <v>481</v>
+      </c>
+      <c r="F80" t="n">
+        <v>312.02</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-740.69043908</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>481</v>
+      </c>
+      <c r="C81" t="n">
+        <v>482</v>
+      </c>
+      <c r="D81" t="n">
+        <v>482</v>
+      </c>
+      <c r="E81" t="n">
+        <v>481</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1672</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2412.69043908</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>482</v>
+      </c>
+      <c r="C82" t="n">
+        <v>482</v>
+      </c>
+      <c r="D82" t="n">
+        <v>482</v>
+      </c>
+      <c r="E82" t="n">
+        <v>482</v>
+      </c>
+      <c r="F82" t="n">
+        <v>102</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2412.69043908</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>482</v>
+      </c>
+      <c r="C83" t="n">
+        <v>481</v>
+      </c>
+      <c r="D83" t="n">
+        <v>482</v>
+      </c>
+      <c r="E83" t="n">
+        <v>481</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3868.828</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-6281.51843908</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>486</v>
+      </c>
+      <c r="C84" t="n">
+        <v>486</v>
+      </c>
+      <c r="D84" t="n">
+        <v>486</v>
+      </c>
+      <c r="E84" t="n">
+        <v>486</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-6280.51843908</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>481</v>
+      </c>
+      <c r="C85" t="n">
+        <v>481</v>
+      </c>
+      <c r="D85" t="n">
+        <v>481</v>
+      </c>
+      <c r="E85" t="n">
+        <v>481</v>
+      </c>
+      <c r="F85" t="n">
+        <v>308.02</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-6588.538439080001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>481</v>
+      </c>
+      <c r="C86" t="n">
+        <v>481</v>
+      </c>
+      <c r="D86" t="n">
+        <v>481</v>
+      </c>
+      <c r="E86" t="n">
+        <v>481</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1165.6791</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-6588.538439080001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>481</v>
+      </c>
+      <c r="C87" t="n">
+        <v>481</v>
+      </c>
+      <c r="D87" t="n">
+        <v>481</v>
+      </c>
+      <c r="E87" t="n">
+        <v>481</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1730.2702</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-6588.538439080001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>478</v>
+      </c>
+      <c r="C88" t="n">
+        <v>478</v>
+      </c>
+      <c r="D88" t="n">
+        <v>478</v>
+      </c>
+      <c r="E88" t="n">
+        <v>478</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-6589.538439080001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>481</v>
+      </c>
+      <c r="C89" t="n">
+        <v>481</v>
+      </c>
+      <c r="D89" t="n">
+        <v>481</v>
+      </c>
+      <c r="E89" t="n">
+        <v>481</v>
+      </c>
+      <c r="F89" t="n">
+        <v>638</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-5951.538439080001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>481</v>
+      </c>
+      <c r="C90" t="n">
+        <v>481</v>
+      </c>
+      <c r="D90" t="n">
+        <v>481</v>
+      </c>
+      <c r="E90" t="n">
+        <v>481</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2383.5446</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-5951.538439080001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>478</v>
+      </c>
+      <c r="C91" t="n">
+        <v>475</v>
+      </c>
+      <c r="D91" t="n">
+        <v>480</v>
+      </c>
+      <c r="E91" t="n">
+        <v>475</v>
+      </c>
+      <c r="F91" t="n">
+        <v>480.39493605</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-6431.933375130001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>476</v>
       </c>
-      <c r="C77" t="n">
-        <v>481</v>
-      </c>
-      <c r="D77" t="n">
-        <v>481</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="C92" t="n">
+        <v>475</v>
+      </c>
+      <c r="D92" t="n">
         <v>476</v>
       </c>
-      <c r="F77" t="n">
+      <c r="E92" t="n">
+        <v>475</v>
+      </c>
+      <c r="F92" t="n">
+        <v>93</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-6431.933375130001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>476</v>
+      </c>
+      <c r="C93" t="n">
+        <v>475</v>
+      </c>
+      <c r="D93" t="n">
+        <v>476</v>
+      </c>
+      <c r="E93" t="n">
+        <v>475</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-6431.933375130001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>476</v>
+      </c>
+      <c r="C94" t="n">
+        <v>475</v>
+      </c>
+      <c r="D94" t="n">
+        <v>476</v>
+      </c>
+      <c r="E94" t="n">
+        <v>475</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-6431.933375130001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>481</v>
+      </c>
+      <c r="C95" t="n">
+        <v>481</v>
+      </c>
+      <c r="D95" t="n">
+        <v>481</v>
+      </c>
+      <c r="E95" t="n">
+        <v>481</v>
+      </c>
+      <c r="F95" t="n">
+        <v>437.2869</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-5994.646475130001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>480</v>
+      </c>
+      <c r="C96" t="n">
+        <v>480</v>
+      </c>
+      <c r="D96" t="n">
+        <v>480</v>
+      </c>
+      <c r="E96" t="n">
+        <v>480</v>
+      </c>
+      <c r="F96" t="n">
+        <v>444.4444</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-6439.090875130001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>478</v>
+      </c>
+      <c r="C97" t="n">
+        <v>478</v>
+      </c>
+      <c r="D97" t="n">
+        <v>478</v>
+      </c>
+      <c r="E97" t="n">
+        <v>478</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-6440.090875130001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>478</v>
+      </c>
+      <c r="C98" t="n">
+        <v>478</v>
+      </c>
+      <c r="D98" t="n">
+        <v>478</v>
+      </c>
+      <c r="E98" t="n">
+        <v>478</v>
+      </c>
+      <c r="F98" t="n">
+        <v>279.5124</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-6440.090875130001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>481</v>
+      </c>
+      <c r="C99" t="n">
+        <v>481</v>
+      </c>
+      <c r="D99" t="n">
+        <v>481</v>
+      </c>
+      <c r="E99" t="n">
+        <v>481</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-6439.085875130001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>477</v>
+      </c>
+      <c r="C100" t="n">
+        <v>477</v>
+      </c>
+      <c r="D100" t="n">
+        <v>477</v>
+      </c>
+      <c r="E100" t="n">
+        <v>477</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-6440.085875130001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>481</v>
+      </c>
+      <c r="C101" t="n">
+        <v>481</v>
+      </c>
+      <c r="D101" t="n">
+        <v>481</v>
+      </c>
+      <c r="E101" t="n">
+        <v>481</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-6439.085875130001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>477</v>
+      </c>
+      <c r="C102" t="n">
+        <v>477</v>
+      </c>
+      <c r="D102" t="n">
+        <v>477</v>
+      </c>
+      <c r="E102" t="n">
+        <v>477</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2108.1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-8547.185875130001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>477</v>
+      </c>
+      <c r="C103" t="n">
+        <v>477</v>
+      </c>
+      <c r="D103" t="n">
+        <v>477</v>
+      </c>
+      <c r="E103" t="n">
+        <v>477</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.5744</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-8547.185875130001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>477</v>
+      </c>
+      <c r="K103" t="n">
+        <v>477</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>476</v>
+      </c>
+      <c r="C104" t="n">
+        <v>476</v>
+      </c>
+      <c r="D104" t="n">
+        <v>476</v>
+      </c>
+      <c r="E104" t="n">
+        <v>476</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-8548.185875130001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>477</v>
+      </c>
+      <c r="K104" t="n">
+        <v>477</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>477</v>
+      </c>
+      <c r="C105" t="n">
+        <v>477</v>
+      </c>
+      <c r="D105" t="n">
+        <v>477</v>
+      </c>
+      <c r="E105" t="n">
+        <v>477</v>
+      </c>
+      <c r="F105" t="n">
+        <v>72</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-8476.185875130001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>476</v>
+      </c>
+      <c r="K105" t="n">
+        <v>477</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>476</v>
+      </c>
+      <c r="C106" t="n">
+        <v>481</v>
+      </c>
+      <c r="D106" t="n">
+        <v>481</v>
+      </c>
+      <c r="E106" t="n">
+        <v>476</v>
+      </c>
+      <c r="F106" t="n">
         <v>18.3</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G106" t="n">
         <v>-8457.885875130001</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>477</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>477</v>
+      </c>
+      <c r="K106" t="n">
+        <v>477</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>481</v>
-      </c>
-      <c r="C78" t="n">
-        <v>481</v>
-      </c>
-      <c r="D78" t="n">
-        <v>481</v>
-      </c>
-      <c r="E78" t="n">
-        <v>481</v>
-      </c>
-      <c r="F78" t="n">
-        <v>188.5629</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>481</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>481</v>
-      </c>
-      <c r="C79" t="n">
-        <v>481</v>
-      </c>
-      <c r="D79" t="n">
-        <v>481</v>
-      </c>
-      <c r="E79" t="n">
-        <v>481</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9.523899999999999</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>478</v>
-      </c>
-      <c r="C80" t="n">
-        <v>478</v>
-      </c>
-      <c r="D80" t="n">
-        <v>478</v>
-      </c>
-      <c r="E80" t="n">
-        <v>478</v>
-      </c>
-      <c r="F80" t="n">
-        <v>444.4444</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-8902.330275130002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>481</v>
-      </c>
-      <c r="C81" t="n">
-        <v>481</v>
-      </c>
-      <c r="D81" t="n">
-        <v>481</v>
-      </c>
-      <c r="E81" t="n">
-        <v>481</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2117.7451</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-6784.585175130002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>482</v>
-      </c>
-      <c r="C82" t="n">
-        <v>482</v>
-      </c>
-      <c r="D82" t="n">
-        <v>482</v>
-      </c>
-      <c r="E82" t="n">
-        <v>482</v>
-      </c>
-      <c r="F82" t="n">
-        <v>169.894</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-6614.691175130001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>482</v>
-      </c>
-      <c r="C83" t="n">
-        <v>484</v>
-      </c>
-      <c r="D83" t="n">
-        <v>484</v>
-      </c>
-      <c r="E83" t="n">
-        <v>482</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2066.1157</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-4548.575475130001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>483</v>
-      </c>
-      <c r="C84" t="n">
-        <v>483</v>
-      </c>
-      <c r="D84" t="n">
-        <v>483</v>
-      </c>
-      <c r="E84" t="n">
-        <v>483</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.3498</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-4550.925275130001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>481</v>
-      </c>
-      <c r="C85" t="n">
-        <v>480</v>
-      </c>
-      <c r="D85" t="n">
-        <v>481</v>
-      </c>
-      <c r="E85" t="n">
-        <v>480</v>
-      </c>
-      <c r="F85" t="n">
-        <v>130</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-4680.925275130001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>480</v>
-      </c>
-      <c r="C86" t="n">
-        <v>480</v>
-      </c>
-      <c r="D86" t="n">
-        <v>480</v>
-      </c>
-      <c r="E86" t="n">
-        <v>480</v>
-      </c>
-      <c r="F86" t="n">
-        <v>30</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-4680.925275130001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>482</v>
-      </c>
-      <c r="C87" t="n">
-        <v>482</v>
-      </c>
-      <c r="D87" t="n">
-        <v>482</v>
-      </c>
-      <c r="E87" t="n">
-        <v>482</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1301</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-3379.925275130001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>483</v>
-      </c>
-      <c r="C88" t="n">
-        <v>483</v>
-      </c>
-      <c r="D88" t="n">
-        <v>483</v>
-      </c>
-      <c r="E88" t="n">
-        <v>483</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-3378.925275130001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>482</v>
-      </c>
-      <c r="C89" t="n">
-        <v>481</v>
-      </c>
-      <c r="D89" t="n">
-        <v>482</v>
-      </c>
-      <c r="E89" t="n">
-        <v>481</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1461.4906</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-4840.415875130001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>481</v>
-      </c>
-      <c r="C90" t="n">
-        <v>481</v>
-      </c>
-      <c r="D90" t="n">
-        <v>481</v>
-      </c>
-      <c r="E90" t="n">
-        <v>481</v>
-      </c>
-      <c r="F90" t="n">
-        <v>38.1363</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-4840.415875130001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>482</v>
-      </c>
-      <c r="C91" t="n">
-        <v>482</v>
-      </c>
-      <c r="D91" t="n">
-        <v>482</v>
-      </c>
-      <c r="E91" t="n">
-        <v>482</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-4839.415875130001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>480</v>
-      </c>
-      <c r="C92" t="n">
-        <v>480</v>
-      </c>
-      <c r="D92" t="n">
-        <v>480</v>
-      </c>
-      <c r="E92" t="n">
-        <v>480</v>
-      </c>
-      <c r="F92" t="n">
-        <v>15.6682</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-4855.084075130001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>480</v>
-      </c>
-      <c r="C93" t="n">
-        <v>479</v>
-      </c>
-      <c r="D93" t="n">
-        <v>480</v>
-      </c>
-      <c r="E93" t="n">
-        <v>479</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>479</v>
-      </c>
-      <c r="C94" t="n">
-        <v>479</v>
-      </c>
-      <c r="D94" t="n">
-        <v>479</v>
-      </c>
-      <c r="E94" t="n">
-        <v>479</v>
-      </c>
-      <c r="F94" t="n">
-        <v>643.1485</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>479</v>
-      </c>
-      <c r="C95" t="n">
-        <v>479</v>
-      </c>
-      <c r="D95" t="n">
-        <v>479</v>
-      </c>
-      <c r="E95" t="n">
-        <v>479</v>
-      </c>
-      <c r="F95" t="n">
-        <v>14.3532</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>478</v>
-      </c>
-      <c r="C96" t="n">
-        <v>477</v>
-      </c>
-      <c r="D96" t="n">
-        <v>478</v>
-      </c>
-      <c r="E96" t="n">
-        <v>477</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1886.6464</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-6746.730475130002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>479</v>
-      </c>
-      <c r="C97" t="n">
-        <v>479</v>
-      </c>
-      <c r="D97" t="n">
-        <v>479</v>
-      </c>
-      <c r="E97" t="n">
-        <v>479</v>
-      </c>
-      <c r="F97" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-6486.430475130001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>476</v>
-      </c>
-      <c r="C98" t="n">
-        <v>482</v>
-      </c>
-      <c r="D98" t="n">
-        <v>482</v>
-      </c>
-      <c r="E98" t="n">
-        <v>476</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1359.1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-5127.330475130002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>479</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>481</v>
-      </c>
-      <c r="C99" t="n">
-        <v>481</v>
-      </c>
-      <c r="D99" t="n">
-        <v>481</v>
-      </c>
-      <c r="E99" t="n">
-        <v>481</v>
-      </c>
-      <c r="F99" t="n">
-        <v>111.7432</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-5239.073675130002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>479</v>
-      </c>
-      <c r="C100" t="n">
-        <v>480</v>
-      </c>
-      <c r="D100" t="n">
-        <v>480</v>
-      </c>
-      <c r="E100" t="n">
-        <v>479</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1852.2416</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-7091.315275130002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>480</v>
-      </c>
-      <c r="C101" t="n">
-        <v>481</v>
-      </c>
-      <c r="D101" t="n">
-        <v>481</v>
-      </c>
-      <c r="E101" t="n">
-        <v>480</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>481</v>
-      </c>
-      <c r="C102" t="n">
-        <v>481</v>
-      </c>
-      <c r="D102" t="n">
-        <v>481</v>
-      </c>
-      <c r="E102" t="n">
-        <v>481</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>481</v>
-      </c>
-      <c r="C103" t="n">
-        <v>481</v>
-      </c>
-      <c r="D103" t="n">
-        <v>481</v>
-      </c>
-      <c r="E103" t="n">
-        <v>481</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>481</v>
-      </c>
-      <c r="C104" t="n">
-        <v>481</v>
-      </c>
-      <c r="D104" t="n">
-        <v>481</v>
-      </c>
-      <c r="E104" t="n">
-        <v>481</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>480</v>
-      </c>
-      <c r="C105" t="n">
-        <v>480</v>
-      </c>
-      <c r="D105" t="n">
-        <v>480</v>
-      </c>
-      <c r="E105" t="n">
-        <v>480</v>
-      </c>
-      <c r="F105" t="n">
-        <v>169.4145</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-7254.729775130002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>477</v>
-      </c>
-      <c r="C106" t="n">
-        <v>477</v>
-      </c>
-      <c r="D106" t="n">
-        <v>477</v>
-      </c>
-      <c r="E106" t="n">
-        <v>477</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-7255.729775130002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4356,19 +4258,23 @@
         <v>481</v>
       </c>
       <c r="F107" t="n">
-        <v>1.9667</v>
+        <v>188.5629</v>
       </c>
       <c r="G107" t="n">
-        <v>-7253.763075130002</v>
+        <v>-8457.885875130001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>481</v>
+      </c>
+      <c r="K107" t="n">
+        <v>477</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,10 +4302,10 @@
         <v>481</v>
       </c>
       <c r="F108" t="n">
-        <v>13.5135</v>
+        <v>9.523899999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-7253.763075130002</v>
+        <v>-8457.885875130001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4408,7 +4314,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>477</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,10 +4344,10 @@
         <v>478</v>
       </c>
       <c r="F109" t="n">
-        <v>93.90000000000001</v>
+        <v>444.4444</v>
       </c>
       <c r="G109" t="n">
-        <v>-7347.663075130002</v>
+        <v>-8902.330275130002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4448,7 +4356,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>477</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4464,22 +4374,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C110" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D110" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E110" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>2117.7451</v>
       </c>
       <c r="G110" t="n">
-        <v>-7348.663075130002</v>
+        <v>-6784.585175130002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4488,7 +4398,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>477</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,33 +4416,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C111" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D111" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E111" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>169.894</v>
       </c>
       <c r="G111" t="n">
-        <v>-7348.663075130002</v>
+        <v>-6614.691175130001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>477</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>477</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,22 +4458,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C112" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D112" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E112" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>2066.1157</v>
       </c>
       <c r="G112" t="n">
-        <v>-7348.663075130002</v>
+        <v>-4548.575475130001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4570,7 +4482,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>477</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4586,22 +4500,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C113" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D113" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E113" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>2.3498</v>
       </c>
       <c r="G113" t="n">
-        <v>-7345.663075130002</v>
+        <v>-4550.925275130001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4610,7 +4524,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>477</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,22 +4542,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C114" t="n">
         <v>480</v>
       </c>
       <c r="D114" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E114" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F114" t="n">
-        <v>2.9562</v>
+        <v>130</v>
       </c>
       <c r="G114" t="n">
-        <v>-7345.663075130002</v>
+        <v>-4680.925275130001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4650,7 +4566,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>477</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,10 +4596,10 @@
         <v>480</v>
       </c>
       <c r="F115" t="n">
-        <v>293.3438</v>
+        <v>30</v>
       </c>
       <c r="G115" t="n">
-        <v>-7345.663075130002</v>
+        <v>-4680.925275130001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4690,7 +4608,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>477</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,22 +4626,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C116" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D116" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E116" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>1301</v>
       </c>
       <c r="G116" t="n">
-        <v>-7346.663075130002</v>
+        <v>-3379.925275130001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4730,7 +4650,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>477</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4746,22 +4668,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C117" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D117" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E117" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F117" t="n">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-7207.663075130002</v>
+        <v>-3378.925275130001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4770,7 +4692,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>477</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,22 +4710,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C118" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D118" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E118" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F118" t="n">
-        <v>348.2</v>
+        <v>1461.4906</v>
       </c>
       <c r="G118" t="n">
-        <v>-7207.663075130002</v>
+        <v>-4840.415875130001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4810,7 +4734,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>477</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,10 +4764,10 @@
         <v>481</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>38.1363</v>
       </c>
       <c r="G119" t="n">
-        <v>-7206.663075130002</v>
+        <v>-4840.415875130001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4850,7 +4776,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>477</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4861,6 +4789,1234 @@
       </c>
       <c r="N119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>482</v>
+      </c>
+      <c r="C120" t="n">
+        <v>482</v>
+      </c>
+      <c r="D120" t="n">
+        <v>482</v>
+      </c>
+      <c r="E120" t="n">
+        <v>482</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-4839.415875130001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>477</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>480</v>
+      </c>
+      <c r="C121" t="n">
+        <v>480</v>
+      </c>
+      <c r="D121" t="n">
+        <v>480</v>
+      </c>
+      <c r="E121" t="n">
+        <v>480</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15.6682</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-4855.084075130001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>477</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>480</v>
+      </c>
+      <c r="C122" t="n">
+        <v>479</v>
+      </c>
+      <c r="D122" t="n">
+        <v>480</v>
+      </c>
+      <c r="E122" t="n">
+        <v>479</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-4860.084075130001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>477</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>479</v>
+      </c>
+      <c r="C123" t="n">
+        <v>479</v>
+      </c>
+      <c r="D123" t="n">
+        <v>479</v>
+      </c>
+      <c r="E123" t="n">
+        <v>479</v>
+      </c>
+      <c r="F123" t="n">
+        <v>643.1485</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4860.084075130001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>477</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>479</v>
+      </c>
+      <c r="C124" t="n">
+        <v>479</v>
+      </c>
+      <c r="D124" t="n">
+        <v>479</v>
+      </c>
+      <c r="E124" t="n">
+        <v>479</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14.3532</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4860.084075130001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>477</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>478</v>
+      </c>
+      <c r="C125" t="n">
+        <v>477</v>
+      </c>
+      <c r="D125" t="n">
+        <v>478</v>
+      </c>
+      <c r="E125" t="n">
+        <v>477</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1886.6464</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-6746.730475130002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>477</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>479</v>
+      </c>
+      <c r="C126" t="n">
+        <v>479</v>
+      </c>
+      <c r="D126" t="n">
+        <v>479</v>
+      </c>
+      <c r="E126" t="n">
+        <v>479</v>
+      </c>
+      <c r="F126" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-6486.430475130001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>477</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>476</v>
+      </c>
+      <c r="C127" t="n">
+        <v>482</v>
+      </c>
+      <c r="D127" t="n">
+        <v>482</v>
+      </c>
+      <c r="E127" t="n">
+        <v>476</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1359.1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-5127.330475130002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>477</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>481</v>
+      </c>
+      <c r="C128" t="n">
+        <v>481</v>
+      </c>
+      <c r="D128" t="n">
+        <v>481</v>
+      </c>
+      <c r="E128" t="n">
+        <v>481</v>
+      </c>
+      <c r="F128" t="n">
+        <v>111.7432</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-5239.073675130002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>477</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>479</v>
+      </c>
+      <c r="C129" t="n">
+        <v>480</v>
+      </c>
+      <c r="D129" t="n">
+        <v>480</v>
+      </c>
+      <c r="E129" t="n">
+        <v>479</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1852.2416</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-7091.315275130002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>477</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>480</v>
+      </c>
+      <c r="C130" t="n">
+        <v>481</v>
+      </c>
+      <c r="D130" t="n">
+        <v>481</v>
+      </c>
+      <c r="E130" t="n">
+        <v>480</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>477</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>481</v>
+      </c>
+      <c r="C131" t="n">
+        <v>481</v>
+      </c>
+      <c r="D131" t="n">
+        <v>481</v>
+      </c>
+      <c r="E131" t="n">
+        <v>481</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>477</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>481</v>
+      </c>
+      <c r="C132" t="n">
+        <v>481</v>
+      </c>
+      <c r="D132" t="n">
+        <v>481</v>
+      </c>
+      <c r="E132" t="n">
+        <v>481</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>477</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>481</v>
+      </c>
+      <c r="C133" t="n">
+        <v>481</v>
+      </c>
+      <c r="D133" t="n">
+        <v>481</v>
+      </c>
+      <c r="E133" t="n">
+        <v>481</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>477</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>480</v>
+      </c>
+      <c r="C134" t="n">
+        <v>480</v>
+      </c>
+      <c r="D134" t="n">
+        <v>480</v>
+      </c>
+      <c r="E134" t="n">
+        <v>480</v>
+      </c>
+      <c r="F134" t="n">
+        <v>169.4145</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-7254.729775130002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>477</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>477</v>
+      </c>
+      <c r="C135" t="n">
+        <v>477</v>
+      </c>
+      <c r="D135" t="n">
+        <v>477</v>
+      </c>
+      <c r="E135" t="n">
+        <v>477</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-7255.729775130002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>477</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>481</v>
+      </c>
+      <c r="C136" t="n">
+        <v>481</v>
+      </c>
+      <c r="D136" t="n">
+        <v>481</v>
+      </c>
+      <c r="E136" t="n">
+        <v>481</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.9667</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-7253.763075130002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>477</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>481</v>
+      </c>
+      <c r="C137" t="n">
+        <v>481</v>
+      </c>
+      <c r="D137" t="n">
+        <v>481</v>
+      </c>
+      <c r="E137" t="n">
+        <v>481</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13.5135</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-7253.763075130002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>477</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>478</v>
+      </c>
+      <c r="C138" t="n">
+        <v>478</v>
+      </c>
+      <c r="D138" t="n">
+        <v>478</v>
+      </c>
+      <c r="E138" t="n">
+        <v>478</v>
+      </c>
+      <c r="F138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-7347.663075130002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>477</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>477</v>
+      </c>
+      <c r="C139" t="n">
+        <v>477</v>
+      </c>
+      <c r="D139" t="n">
+        <v>477</v>
+      </c>
+      <c r="E139" t="n">
+        <v>477</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>477</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>477</v>
+      </c>
+      <c r="C140" t="n">
+        <v>477</v>
+      </c>
+      <c r="D140" t="n">
+        <v>477</v>
+      </c>
+      <c r="E140" t="n">
+        <v>477</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>477</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>477</v>
+      </c>
+      <c r="C141" t="n">
+        <v>477</v>
+      </c>
+      <c r="D141" t="n">
+        <v>477</v>
+      </c>
+      <c r="E141" t="n">
+        <v>477</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>477</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>480</v>
+      </c>
+      <c r="C142" t="n">
+        <v>480</v>
+      </c>
+      <c r="D142" t="n">
+        <v>480</v>
+      </c>
+      <c r="E142" t="n">
+        <v>480</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>477</v>
+      </c>
+      <c r="K142" t="n">
+        <v>477</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>477</v>
+      </c>
+      <c r="C143" t="n">
+        <v>480</v>
+      </c>
+      <c r="D143" t="n">
+        <v>480</v>
+      </c>
+      <c r="E143" t="n">
+        <v>477</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.9562</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>480</v>
+      </c>
+      <c r="K143" t="n">
+        <v>477</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>480</v>
+      </c>
+      <c r="C144" t="n">
+        <v>480</v>
+      </c>
+      <c r="D144" t="n">
+        <v>480</v>
+      </c>
+      <c r="E144" t="n">
+        <v>480</v>
+      </c>
+      <c r="F144" t="n">
+        <v>293.3438</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>480</v>
+      </c>
+      <c r="K144" t="n">
+        <v>477</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>478</v>
+      </c>
+      <c r="C145" t="n">
+        <v>478</v>
+      </c>
+      <c r="D145" t="n">
+        <v>478</v>
+      </c>
+      <c r="E145" t="n">
+        <v>478</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-7346.663075130002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>480</v>
+      </c>
+      <c r="K145" t="n">
+        <v>477</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>480</v>
+      </c>
+      <c r="C146" t="n">
+        <v>480</v>
+      </c>
+      <c r="D146" t="n">
+        <v>480</v>
+      </c>
+      <c r="E146" t="n">
+        <v>480</v>
+      </c>
+      <c r="F146" t="n">
+        <v>139</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-7207.663075130002</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>478</v>
+      </c>
+      <c r="K146" t="n">
+        <v>477</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>480</v>
+      </c>
+      <c r="C147" t="n">
+        <v>480</v>
+      </c>
+      <c r="D147" t="n">
+        <v>481</v>
+      </c>
+      <c r="E147" t="n">
+        <v>480</v>
+      </c>
+      <c r="F147" t="n">
+        <v>348.2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-7207.663075130002</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>477</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>481</v>
+      </c>
+      <c r="C148" t="n">
+        <v>481</v>
+      </c>
+      <c r="D148" t="n">
+        <v>481</v>
+      </c>
+      <c r="E148" t="n">
+        <v>481</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-7206.663075130002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>477</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>4006.14960985</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>3989.61012487</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>3989.61012487</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>1154.54382487</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>2845.38622487</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>2139.85602487</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>1238.01812487</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>1239.01812487</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>1238.01812487</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>1239.01812487</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-2038.70907513</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,21 @@
         <v>-661.8670390799998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2833,21 @@
         <v>-363.2606390799998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2874,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2911,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2948,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2985,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3022,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3059,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3096,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3133,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3170,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3207,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3244,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3281,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3318,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3355,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3392,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3429,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3466,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3503,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3540,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3577,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3614,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3651,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3688,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3725,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3762,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3797,21 @@
         <v>-6440.085875130001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3836,21 @@
         <v>-6439.085875130001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3875,21 @@
         <v>-8547.185875130001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,22 +3914,21 @@
         <v>-8547.185875130001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>477</v>
-      </c>
-      <c r="K103" t="n">
-        <v>477</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>477</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4132,26 +3953,19 @@
         <v>-8548.185875130001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>477</v>
-      </c>
-      <c r="K104" t="n">
-        <v>477</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4176,26 +3990,21 @@
         <v>-8476.185875130001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
         <v>476</v>
       </c>
-      <c r="K105" t="n">
-        <v>477</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,26 +4029,19 @@
         <v>-8457.885875130001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>477</v>
-      </c>
-      <c r="K106" t="n">
-        <v>477</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4264,26 +4066,19 @@
         <v>-8457.885875130001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>481</v>
-      </c>
-      <c r="K107" t="n">
-        <v>477</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4310,22 +4105,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>477</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4352,22 +4142,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>477</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4392,24 +4177,21 @@
         <v>-6784.585175130002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>477</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4436,22 +4218,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>477</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4478,22 +4255,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>477</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4520,22 +4292,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>477</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4562,22 +4329,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>477</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4604,22 +4366,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>477</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4646,22 +4403,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>477</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4688,22 +4440,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>477</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4730,22 +4477,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>477</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4772,22 +4514,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>477</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4814,22 +4551,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>477</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4856,22 +4588,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>477</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4898,22 +4625,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>477</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4940,22 +4662,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>477</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4982,22 +4699,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>477</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5024,22 +4736,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>477</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5066,22 +4773,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>477</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5108,22 +4810,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>477</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5150,22 +4847,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>477</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5192,22 +4884,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>477</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5234,22 +4921,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>477</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5276,22 +4958,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>477</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5318,22 +4995,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>477</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5360,22 +5032,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>477</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5402,22 +5069,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>477</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5442,24 +5104,19 @@
         <v>-7255.729775130002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>477</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5486,22 +5143,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>477</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5528,22 +5180,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>477</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5570,22 +5217,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>477</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5610,24 +5252,19 @@
         <v>-7348.663075130002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>477</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5652,24 +5289,19 @@
         <v>-7348.663075130002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>477</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5694,24 +5326,19 @@
         <v>-7348.663075130002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>477</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5736,26 +5363,21 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>477</v>
-      </c>
-      <c r="K142" t="n">
-        <v>477</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>477</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5780,26 +5402,19 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>480</v>
-      </c>
-      <c r="K143" t="n">
-        <v>477</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5824,26 +5439,21 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>480</v>
-      </c>
-      <c r="K144" t="n">
-        <v>477</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>480</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5870,24 +5480,17 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>480</v>
-      </c>
-      <c r="K145" t="n">
-        <v>477</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5912,26 +5515,21 @@
         <v>-7207.663075130002</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>478</v>
-      </c>
-      <c r="K146" t="n">
-        <v>477</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>478</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5956,24 +5554,19 @@
         <v>-7207.663075130002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>477</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5998,26 +5591,23 @@
         <v>-7206.663075130002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>477</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4006.14960985</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4010.48634454</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3998.60262487</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1154.54382487</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3138.38362487</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2845.38622487</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2846.38622487</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2128.77602487</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2142.85602487</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2139.85602487</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2138.85602487</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1188.01812487</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1238.01812487</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1239.01812487</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1238.01812487</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1239.01812487</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2038.70907513</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2038.70907513</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9986.257575129999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9985.257575129999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2794,17 +2794,11 @@
         <v>-661.8670390799998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2833,17 +2827,11 @@
         <v>-363.2606390799998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3172,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3209,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3283,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3357,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3468,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3575,13 +3487,15 @@
         <v>-6431.933375130001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>475</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3612,9 +3526,11 @@
         <v>-5994.646475130001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>475</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3723,9 +3639,11 @@
         <v>-6440.090875130001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>478</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3797,7 +3715,7 @@
         <v>-6440.085875130001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>481</v>
@@ -3836,11 +3754,9 @@
         <v>-6439.085875130001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3875,7 +3791,7 @@
         <v>-8547.185875130001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>481</v>
@@ -3914,7 +3830,7 @@
         <v>-8547.185875130001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>477</v>
@@ -3953,9 +3869,11 @@
         <v>-8548.185875130001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>477</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -3990,7 +3908,7 @@
         <v>-8476.185875130001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>476</v>
@@ -4029,9 +3947,11 @@
         <v>-8457.885875130001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>477</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4066,9 +3986,11 @@
         <v>-8457.885875130001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>481</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4177,11 +4099,9 @@
         <v>-6784.585175130002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4808,9 +4728,11 @@
         <v>-5127.330475130002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>479</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5104,7 +5026,7 @@
         <v>-7255.729775130002</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5141,9 +5063,11 @@
         <v>-7253.763075130002</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>477</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5254,7 +5178,9 @@
       <c r="H139" t="n">
         <v>1</v>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>478</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5291,7 +5217,9 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>477</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5328,7 +5256,9 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>477</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5363,7 +5293,7 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>477</v>
@@ -5402,9 +5332,11 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>480</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5439,7 +5371,7 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>480</v>
@@ -5480,7 +5412,9 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>480</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5515,7 +5449,7 @@
         <v>-7207.663075130002</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>478</v>
@@ -5556,7 +5490,9 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>480</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5591,7 +5527,7 @@
         <v>-7206.663075130002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>480</v>
@@ -5608,6 +5544,6 @@
       <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>4010.48634454</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3998.60262487</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1154.54382487</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3138.38362487</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2845.38622487</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2846.38622487</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2128.77602487</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2142.85602487</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2139.85602487</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2138.85602487</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1188.01812487</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1238.01812487</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1239.01812487</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1238.01812487</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2038.70907513</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2038.70907513</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9986.257575129999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9985.257575129999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2412.69043908</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3487,1862 +3487,1656 @@
         <v>-6431.933375130001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>481</v>
+      </c>
+      <c r="C95" t="n">
+        <v>481</v>
+      </c>
+      <c r="D95" t="n">
+        <v>481</v>
+      </c>
+      <c r="E95" t="n">
+        <v>481</v>
+      </c>
+      <c r="F95" t="n">
+        <v>437.2869</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-5994.646475130001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>480</v>
+      </c>
+      <c r="C96" t="n">
+        <v>480</v>
+      </c>
+      <c r="D96" t="n">
+        <v>480</v>
+      </c>
+      <c r="E96" t="n">
+        <v>480</v>
+      </c>
+      <c r="F96" t="n">
+        <v>444.4444</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-6439.090875130001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>478</v>
+      </c>
+      <c r="C97" t="n">
+        <v>478</v>
+      </c>
+      <c r="D97" t="n">
+        <v>478</v>
+      </c>
+      <c r="E97" t="n">
+        <v>478</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-6440.090875130001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>478</v>
+      </c>
+      <c r="C98" t="n">
+        <v>478</v>
+      </c>
+      <c r="D98" t="n">
+        <v>478</v>
+      </c>
+      <c r="E98" t="n">
+        <v>478</v>
+      </c>
+      <c r="F98" t="n">
+        <v>279.5124</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-6440.090875130001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>481</v>
+      </c>
+      <c r="C99" t="n">
+        <v>481</v>
+      </c>
+      <c r="D99" t="n">
+        <v>481</v>
+      </c>
+      <c r="E99" t="n">
+        <v>481</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-6439.085875130001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>477</v>
+      </c>
+      <c r="C100" t="n">
+        <v>477</v>
+      </c>
+      <c r="D100" t="n">
+        <v>477</v>
+      </c>
+      <c r="E100" t="n">
+        <v>477</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-6440.085875130001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>481</v>
+      </c>
+      <c r="C101" t="n">
+        <v>481</v>
+      </c>
+      <c r="D101" t="n">
+        <v>481</v>
+      </c>
+      <c r="E101" t="n">
+        <v>481</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-6439.085875130001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>477</v>
+      </c>
+      <c r="C102" t="n">
+        <v>477</v>
+      </c>
+      <c r="D102" t="n">
+        <v>477</v>
+      </c>
+      <c r="E102" t="n">
+        <v>477</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2108.1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-8547.185875130001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>477</v>
+      </c>
+      <c r="C103" t="n">
+        <v>477</v>
+      </c>
+      <c r="D103" t="n">
+        <v>477</v>
+      </c>
+      <c r="E103" t="n">
+        <v>477</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.5744</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-8547.185875130001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>476</v>
+      </c>
+      <c r="C104" t="n">
+        <v>476</v>
+      </c>
+      <c r="D104" t="n">
+        <v>476</v>
+      </c>
+      <c r="E104" t="n">
+        <v>476</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-8548.185875130001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>477</v>
+      </c>
+      <c r="C105" t="n">
+        <v>477</v>
+      </c>
+      <c r="D105" t="n">
+        <v>477</v>
+      </c>
+      <c r="E105" t="n">
+        <v>477</v>
+      </c>
+      <c r="F105" t="n">
+        <v>72</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-8476.185875130001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>476</v>
+      </c>
+      <c r="C106" t="n">
+        <v>481</v>
+      </c>
+      <c r="D106" t="n">
+        <v>481</v>
+      </c>
+      <c r="E106" t="n">
+        <v>476</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-8457.885875130001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>481</v>
+      </c>
+      <c r="C107" t="n">
+        <v>481</v>
+      </c>
+      <c r="D107" t="n">
+        <v>481</v>
+      </c>
+      <c r="E107" t="n">
+        <v>481</v>
+      </c>
+      <c r="F107" t="n">
+        <v>188.5629</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-8457.885875130001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>481</v>
+      </c>
+      <c r="C108" t="n">
+        <v>481</v>
+      </c>
+      <c r="D108" t="n">
+        <v>481</v>
+      </c>
+      <c r="E108" t="n">
+        <v>481</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9.523899999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-8457.885875130001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>478</v>
+      </c>
+      <c r="C109" t="n">
+        <v>478</v>
+      </c>
+      <c r="D109" t="n">
+        <v>478</v>
+      </c>
+      <c r="E109" t="n">
+        <v>478</v>
+      </c>
+      <c r="F109" t="n">
+        <v>444.4444</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-8902.330275130002</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>481</v>
+      </c>
+      <c r="C110" t="n">
+        <v>481</v>
+      </c>
+      <c r="D110" t="n">
+        <v>481</v>
+      </c>
+      <c r="E110" t="n">
+        <v>481</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2117.7451</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-6784.585175130002</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>482</v>
+      </c>
+      <c r="C111" t="n">
+        <v>482</v>
+      </c>
+      <c r="D111" t="n">
+        <v>482</v>
+      </c>
+      <c r="E111" t="n">
+        <v>482</v>
+      </c>
+      <c r="F111" t="n">
+        <v>169.894</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-6614.691175130001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>482</v>
+      </c>
+      <c r="C112" t="n">
+        <v>484</v>
+      </c>
+      <c r="D112" t="n">
+        <v>484</v>
+      </c>
+      <c r="E112" t="n">
+        <v>482</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2066.1157</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4548.575475130001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>483</v>
+      </c>
+      <c r="C113" t="n">
+        <v>483</v>
+      </c>
+      <c r="D113" t="n">
+        <v>483</v>
+      </c>
+      <c r="E113" t="n">
+        <v>483</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.3498</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-4550.925275130001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>481</v>
+      </c>
+      <c r="C114" t="n">
+        <v>480</v>
+      </c>
+      <c r="D114" t="n">
+        <v>481</v>
+      </c>
+      <c r="E114" t="n">
+        <v>480</v>
+      </c>
+      <c r="F114" t="n">
+        <v>130</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-4680.925275130001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>480</v>
+      </c>
+      <c r="C115" t="n">
+        <v>480</v>
+      </c>
+      <c r="D115" t="n">
+        <v>480</v>
+      </c>
+      <c r="E115" t="n">
+        <v>480</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-4680.925275130001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>482</v>
+      </c>
+      <c r="C116" t="n">
+        <v>482</v>
+      </c>
+      <c r="D116" t="n">
+        <v>482</v>
+      </c>
+      <c r="E116" t="n">
+        <v>482</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1301</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3379.925275130001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>483</v>
+      </c>
+      <c r="C117" t="n">
+        <v>483</v>
+      </c>
+      <c r="D117" t="n">
+        <v>483</v>
+      </c>
+      <c r="E117" t="n">
+        <v>483</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-3378.925275130001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>482</v>
+      </c>
+      <c r="C118" t="n">
+        <v>481</v>
+      </c>
+      <c r="D118" t="n">
+        <v>482</v>
+      </c>
+      <c r="E118" t="n">
+        <v>481</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1461.4906</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-4840.415875130001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>481</v>
+      </c>
+      <c r="C119" t="n">
+        <v>481</v>
+      </c>
+      <c r="D119" t="n">
+        <v>481</v>
+      </c>
+      <c r="E119" t="n">
+        <v>481</v>
+      </c>
+      <c r="F119" t="n">
+        <v>38.1363</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-4840.415875130001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>482</v>
+      </c>
+      <c r="C120" t="n">
+        <v>482</v>
+      </c>
+      <c r="D120" t="n">
+        <v>482</v>
+      </c>
+      <c r="E120" t="n">
+        <v>482</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-4839.415875130001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>480</v>
+      </c>
+      <c r="C121" t="n">
+        <v>480</v>
+      </c>
+      <c r="D121" t="n">
+        <v>480</v>
+      </c>
+      <c r="E121" t="n">
+        <v>480</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15.6682</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-4855.084075130001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>480</v>
+      </c>
+      <c r="C122" t="n">
+        <v>479</v>
+      </c>
+      <c r="D122" t="n">
+        <v>480</v>
+      </c>
+      <c r="E122" t="n">
+        <v>479</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-4860.084075130001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>479</v>
+      </c>
+      <c r="C123" t="n">
+        <v>479</v>
+      </c>
+      <c r="D123" t="n">
+        <v>479</v>
+      </c>
+      <c r="E123" t="n">
+        <v>479</v>
+      </c>
+      <c r="F123" t="n">
+        <v>643.1485</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4860.084075130001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>479</v>
+      </c>
+      <c r="C124" t="n">
+        <v>479</v>
+      </c>
+      <c r="D124" t="n">
+        <v>479</v>
+      </c>
+      <c r="E124" t="n">
+        <v>479</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14.3532</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4860.084075130001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>478</v>
+      </c>
+      <c r="C125" t="n">
+        <v>477</v>
+      </c>
+      <c r="D125" t="n">
+        <v>478</v>
+      </c>
+      <c r="E125" t="n">
+        <v>477</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1886.6464</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-6746.730475130002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>479</v>
+      </c>
+      <c r="C126" t="n">
+        <v>479</v>
+      </c>
+      <c r="D126" t="n">
+        <v>479</v>
+      </c>
+      <c r="E126" t="n">
+        <v>479</v>
+      </c>
+      <c r="F126" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-6486.430475130001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>476</v>
+      </c>
+      <c r="C127" t="n">
+        <v>482</v>
+      </c>
+      <c r="D127" t="n">
+        <v>482</v>
+      </c>
+      <c r="E127" t="n">
+        <v>476</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1359.1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-5127.330475130002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>481</v>
+      </c>
+      <c r="C128" t="n">
+        <v>481</v>
+      </c>
+      <c r="D128" t="n">
+        <v>481</v>
+      </c>
+      <c r="E128" t="n">
+        <v>481</v>
+      </c>
+      <c r="F128" t="n">
+        <v>111.7432</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-5239.073675130002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>479</v>
+      </c>
+      <c r="C129" t="n">
+        <v>480</v>
+      </c>
+      <c r="D129" t="n">
+        <v>480</v>
+      </c>
+      <c r="E129" t="n">
+        <v>479</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1852.2416</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-7091.315275130002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>480</v>
+      </c>
+      <c r="C130" t="n">
+        <v>481</v>
+      </c>
+      <c r="D130" t="n">
+        <v>481</v>
+      </c>
+      <c r="E130" t="n">
+        <v>480</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>481</v>
+      </c>
+      <c r="C131" t="n">
+        <v>481</v>
+      </c>
+      <c r="D131" t="n">
+        <v>481</v>
+      </c>
+      <c r="E131" t="n">
+        <v>481</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>481</v>
+      </c>
+      <c r="C132" t="n">
+        <v>481</v>
+      </c>
+      <c r="D132" t="n">
+        <v>481</v>
+      </c>
+      <c r="E132" t="n">
+        <v>481</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>481</v>
+      </c>
+      <c r="C133" t="n">
+        <v>481</v>
+      </c>
+      <c r="D133" t="n">
+        <v>481</v>
+      </c>
+      <c r="E133" t="n">
+        <v>481</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-7085.315275130002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>480</v>
+      </c>
+      <c r="C134" t="n">
+        <v>480</v>
+      </c>
+      <c r="D134" t="n">
+        <v>480</v>
+      </c>
+      <c r="E134" t="n">
+        <v>480</v>
+      </c>
+      <c r="F134" t="n">
+        <v>169.4145</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-7254.729775130002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>477</v>
+      </c>
+      <c r="C135" t="n">
+        <v>477</v>
+      </c>
+      <c r="D135" t="n">
+        <v>477</v>
+      </c>
+      <c r="E135" t="n">
+        <v>477</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-7255.729775130002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>481</v>
+      </c>
+      <c r="C136" t="n">
+        <v>481</v>
+      </c>
+      <c r="D136" t="n">
+        <v>481</v>
+      </c>
+      <c r="E136" t="n">
+        <v>481</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.9667</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-7253.763075130002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>481</v>
+      </c>
+      <c r="C137" t="n">
+        <v>481</v>
+      </c>
+      <c r="D137" t="n">
+        <v>481</v>
+      </c>
+      <c r="E137" t="n">
+        <v>481</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13.5135</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-7253.763075130002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>478</v>
+      </c>
+      <c r="C138" t="n">
+        <v>478</v>
+      </c>
+      <c r="D138" t="n">
+        <v>478</v>
+      </c>
+      <c r="E138" t="n">
+        <v>478</v>
+      </c>
+      <c r="F138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-7347.663075130002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>477</v>
+      </c>
+      <c r="C139" t="n">
+        <v>477</v>
+      </c>
+      <c r="D139" t="n">
+        <v>477</v>
+      </c>
+      <c r="E139" t="n">
+        <v>477</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>478</v>
+      </c>
+      <c r="J139" t="n">
+        <v>478</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>477</v>
+      </c>
+      <c r="C140" t="n">
+        <v>477</v>
+      </c>
+      <c r="D140" t="n">
+        <v>477</v>
+      </c>
+      <c r="E140" t="n">
+        <v>477</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>477</v>
+      </c>
+      <c r="J140" t="n">
+        <v>478</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>477</v>
+      </c>
+      <c r="C141" t="n">
+        <v>477</v>
+      </c>
+      <c r="D141" t="n">
+        <v>477</v>
+      </c>
+      <c r="E141" t="n">
+        <v>477</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-7348.663075130002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>478</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>480</v>
+      </c>
+      <c r="C142" t="n">
+        <v>480</v>
+      </c>
+      <c r="D142" t="n">
+        <v>480</v>
+      </c>
+      <c r="E142" t="n">
+        <v>480</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>477</v>
+      </c>
+      <c r="J142" t="n">
+        <v>477</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>477</v>
+      </c>
+      <c r="C143" t="n">
+        <v>480</v>
+      </c>
+      <c r="D143" t="n">
+        <v>480</v>
+      </c>
+      <c r="E143" t="n">
+        <v>477</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.9562</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-7345.663075130002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>477</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>481</v>
-      </c>
-      <c r="C95" t="n">
-        <v>481</v>
-      </c>
-      <c r="D95" t="n">
-        <v>481</v>
-      </c>
-      <c r="E95" t="n">
-        <v>481</v>
-      </c>
-      <c r="F95" t="n">
-        <v>437.2869</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-5994.646475130001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>475</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>480</v>
-      </c>
-      <c r="C96" t="n">
-        <v>480</v>
-      </c>
-      <c r="D96" t="n">
-        <v>480</v>
-      </c>
-      <c r="E96" t="n">
-        <v>480</v>
-      </c>
-      <c r="F96" t="n">
-        <v>444.4444</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-6439.090875130001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>478</v>
-      </c>
-      <c r="C97" t="n">
-        <v>478</v>
-      </c>
-      <c r="D97" t="n">
-        <v>478</v>
-      </c>
-      <c r="E97" t="n">
-        <v>478</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-6440.090875130001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>478</v>
-      </c>
-      <c r="C98" t="n">
-        <v>478</v>
-      </c>
-      <c r="D98" t="n">
-        <v>478</v>
-      </c>
-      <c r="E98" t="n">
-        <v>478</v>
-      </c>
-      <c r="F98" t="n">
-        <v>279.5124</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-6440.090875130001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>478</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>481</v>
-      </c>
-      <c r="C99" t="n">
-        <v>481</v>
-      </c>
-      <c r="D99" t="n">
-        <v>481</v>
-      </c>
-      <c r="E99" t="n">
-        <v>481</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-6439.085875130001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>477</v>
-      </c>
-      <c r="C100" t="n">
-        <v>477</v>
-      </c>
-      <c r="D100" t="n">
-        <v>477</v>
-      </c>
-      <c r="E100" t="n">
-        <v>477</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-6440.085875130001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>481</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>481</v>
-      </c>
-      <c r="C101" t="n">
-        <v>481</v>
-      </c>
-      <c r="D101" t="n">
-        <v>481</v>
-      </c>
-      <c r="E101" t="n">
-        <v>481</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-6439.085875130001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>477</v>
-      </c>
-      <c r="C102" t="n">
-        <v>477</v>
-      </c>
-      <c r="D102" t="n">
-        <v>477</v>
-      </c>
-      <c r="E102" t="n">
-        <v>477</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2108.1</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-8547.185875130001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>481</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>477</v>
-      </c>
-      <c r="C103" t="n">
-        <v>477</v>
-      </c>
-      <c r="D103" t="n">
-        <v>477</v>
-      </c>
-      <c r="E103" t="n">
-        <v>477</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2.5744</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-8547.185875130001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>477</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>476</v>
-      </c>
-      <c r="C104" t="n">
-        <v>476</v>
-      </c>
-      <c r="D104" t="n">
-        <v>476</v>
-      </c>
-      <c r="E104" t="n">
-        <v>476</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-8548.185875130001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>477</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>477</v>
-      </c>
-      <c r="C105" t="n">
-        <v>477</v>
-      </c>
-      <c r="D105" t="n">
-        <v>477</v>
-      </c>
-      <c r="E105" t="n">
-        <v>477</v>
-      </c>
-      <c r="F105" t="n">
-        <v>72</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-8476.185875130001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>476</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>476</v>
-      </c>
-      <c r="C106" t="n">
-        <v>481</v>
-      </c>
-      <c r="D106" t="n">
-        <v>481</v>
-      </c>
-      <c r="E106" t="n">
-        <v>476</v>
-      </c>
-      <c r="F106" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>477</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>481</v>
-      </c>
-      <c r="C107" t="n">
-        <v>481</v>
-      </c>
-      <c r="D107" t="n">
-        <v>481</v>
-      </c>
-      <c r="E107" t="n">
-        <v>481</v>
-      </c>
-      <c r="F107" t="n">
-        <v>188.5629</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>481</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>481</v>
-      </c>
-      <c r="C108" t="n">
-        <v>481</v>
-      </c>
-      <c r="D108" t="n">
-        <v>481</v>
-      </c>
-      <c r="E108" t="n">
-        <v>481</v>
-      </c>
-      <c r="F108" t="n">
-        <v>9.523899999999999</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>478</v>
-      </c>
-      <c r="C109" t="n">
-        <v>478</v>
-      </c>
-      <c r="D109" t="n">
-        <v>478</v>
-      </c>
-      <c r="E109" t="n">
-        <v>478</v>
-      </c>
-      <c r="F109" t="n">
-        <v>444.4444</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-8902.330275130002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>481</v>
-      </c>
-      <c r="C110" t="n">
-        <v>481</v>
-      </c>
-      <c r="D110" t="n">
-        <v>481</v>
-      </c>
-      <c r="E110" t="n">
-        <v>481</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2117.7451</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-6784.585175130002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>482</v>
-      </c>
-      <c r="C111" t="n">
-        <v>482</v>
-      </c>
-      <c r="D111" t="n">
-        <v>482</v>
-      </c>
-      <c r="E111" t="n">
-        <v>482</v>
-      </c>
-      <c r="F111" t="n">
-        <v>169.894</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-6614.691175130001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>482</v>
-      </c>
-      <c r="C112" t="n">
-        <v>484</v>
-      </c>
-      <c r="D112" t="n">
-        <v>484</v>
-      </c>
-      <c r="E112" t="n">
-        <v>482</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2066.1157</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-4548.575475130001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>483</v>
-      </c>
-      <c r="C113" t="n">
-        <v>483</v>
-      </c>
-      <c r="D113" t="n">
-        <v>483</v>
-      </c>
-      <c r="E113" t="n">
-        <v>483</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2.3498</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-4550.925275130001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>481</v>
-      </c>
-      <c r="C114" t="n">
-        <v>480</v>
-      </c>
-      <c r="D114" t="n">
-        <v>481</v>
-      </c>
-      <c r="E114" t="n">
-        <v>480</v>
-      </c>
-      <c r="F114" t="n">
-        <v>130</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-4680.925275130001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>480</v>
-      </c>
-      <c r="C115" t="n">
-        <v>480</v>
-      </c>
-      <c r="D115" t="n">
-        <v>480</v>
-      </c>
-      <c r="E115" t="n">
-        <v>480</v>
-      </c>
-      <c r="F115" t="n">
-        <v>30</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-4680.925275130001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>482</v>
-      </c>
-      <c r="C116" t="n">
-        <v>482</v>
-      </c>
-      <c r="D116" t="n">
-        <v>482</v>
-      </c>
-      <c r="E116" t="n">
-        <v>482</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1301</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-3379.925275130001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>483</v>
-      </c>
-      <c r="C117" t="n">
-        <v>483</v>
-      </c>
-      <c r="D117" t="n">
-        <v>483</v>
-      </c>
-      <c r="E117" t="n">
-        <v>483</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-3378.925275130001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>482</v>
-      </c>
-      <c r="C118" t="n">
-        <v>481</v>
-      </c>
-      <c r="D118" t="n">
-        <v>482</v>
-      </c>
-      <c r="E118" t="n">
-        <v>481</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1461.4906</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-4840.415875130001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>481</v>
-      </c>
-      <c r="C119" t="n">
-        <v>481</v>
-      </c>
-      <c r="D119" t="n">
-        <v>481</v>
-      </c>
-      <c r="E119" t="n">
-        <v>481</v>
-      </c>
-      <c r="F119" t="n">
-        <v>38.1363</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-4840.415875130001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>482</v>
-      </c>
-      <c r="C120" t="n">
-        <v>482</v>
-      </c>
-      <c r="D120" t="n">
-        <v>482</v>
-      </c>
-      <c r="E120" t="n">
-        <v>482</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-4839.415875130001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>480</v>
-      </c>
-      <c r="C121" t="n">
-        <v>480</v>
-      </c>
-      <c r="D121" t="n">
-        <v>480</v>
-      </c>
-      <c r="E121" t="n">
-        <v>480</v>
-      </c>
-      <c r="F121" t="n">
-        <v>15.6682</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-4855.084075130001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>480</v>
-      </c>
-      <c r="C122" t="n">
-        <v>479</v>
-      </c>
-      <c r="D122" t="n">
-        <v>480</v>
-      </c>
-      <c r="E122" t="n">
-        <v>479</v>
-      </c>
-      <c r="F122" t="n">
-        <v>5</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>479</v>
-      </c>
-      <c r="C123" t="n">
-        <v>479</v>
-      </c>
-      <c r="D123" t="n">
-        <v>479</v>
-      </c>
-      <c r="E123" t="n">
-        <v>479</v>
-      </c>
-      <c r="F123" t="n">
-        <v>643.1485</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>479</v>
-      </c>
-      <c r="C124" t="n">
-        <v>479</v>
-      </c>
-      <c r="D124" t="n">
-        <v>479</v>
-      </c>
-      <c r="E124" t="n">
-        <v>479</v>
-      </c>
-      <c r="F124" t="n">
-        <v>14.3532</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>478</v>
-      </c>
-      <c r="C125" t="n">
-        <v>477</v>
-      </c>
-      <c r="D125" t="n">
-        <v>478</v>
-      </c>
-      <c r="E125" t="n">
-        <v>477</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1886.6464</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-6746.730475130002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>479</v>
-      </c>
-      <c r="C126" t="n">
-        <v>479</v>
-      </c>
-      <c r="D126" t="n">
-        <v>479</v>
-      </c>
-      <c r="E126" t="n">
-        <v>479</v>
-      </c>
-      <c r="F126" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-6486.430475130001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>476</v>
-      </c>
-      <c r="C127" t="n">
-        <v>482</v>
-      </c>
-      <c r="D127" t="n">
-        <v>482</v>
-      </c>
-      <c r="E127" t="n">
-        <v>476</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1359.1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-5127.330475130002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>479</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>481</v>
-      </c>
-      <c r="C128" t="n">
-        <v>481</v>
-      </c>
-      <c r="D128" t="n">
-        <v>481</v>
-      </c>
-      <c r="E128" t="n">
-        <v>481</v>
-      </c>
-      <c r="F128" t="n">
-        <v>111.7432</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-5239.073675130002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>479</v>
-      </c>
-      <c r="C129" t="n">
-        <v>480</v>
-      </c>
-      <c r="D129" t="n">
-        <v>480</v>
-      </c>
-      <c r="E129" t="n">
-        <v>479</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1852.2416</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-7091.315275130002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>480</v>
-      </c>
-      <c r="C130" t="n">
-        <v>481</v>
-      </c>
-      <c r="D130" t="n">
-        <v>481</v>
-      </c>
-      <c r="E130" t="n">
-        <v>480</v>
-      </c>
-      <c r="F130" t="n">
-        <v>6</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>481</v>
-      </c>
-      <c r="C131" t="n">
-        <v>481</v>
-      </c>
-      <c r="D131" t="n">
-        <v>481</v>
-      </c>
-      <c r="E131" t="n">
-        <v>481</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>481</v>
-      </c>
-      <c r="C132" t="n">
-        <v>481</v>
-      </c>
-      <c r="D132" t="n">
-        <v>481</v>
-      </c>
-      <c r="E132" t="n">
-        <v>481</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>481</v>
-      </c>
-      <c r="C133" t="n">
-        <v>481</v>
-      </c>
-      <c r="D133" t="n">
-        <v>481</v>
-      </c>
-      <c r="E133" t="n">
-        <v>481</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>480</v>
-      </c>
-      <c r="C134" t="n">
-        <v>480</v>
-      </c>
-      <c r="D134" t="n">
-        <v>480</v>
-      </c>
-      <c r="E134" t="n">
-        <v>480</v>
-      </c>
-      <c r="F134" t="n">
-        <v>169.4145</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-7254.729775130002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>477</v>
-      </c>
-      <c r="C135" t="n">
-        <v>477</v>
-      </c>
-      <c r="D135" t="n">
-        <v>477</v>
-      </c>
-      <c r="E135" t="n">
-        <v>477</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-7255.729775130002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>481</v>
-      </c>
-      <c r="C136" t="n">
-        <v>481</v>
-      </c>
-      <c r="D136" t="n">
-        <v>481</v>
-      </c>
-      <c r="E136" t="n">
-        <v>481</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1.9667</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-7253.763075130002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>477</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>481</v>
-      </c>
-      <c r="C137" t="n">
-        <v>481</v>
-      </c>
-      <c r="D137" t="n">
-        <v>481</v>
-      </c>
-      <c r="E137" t="n">
-        <v>481</v>
-      </c>
-      <c r="F137" t="n">
-        <v>13.5135</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-7253.763075130002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>478</v>
-      </c>
-      <c r="C138" t="n">
-        <v>478</v>
-      </c>
-      <c r="D138" t="n">
-        <v>478</v>
-      </c>
-      <c r="E138" t="n">
-        <v>478</v>
-      </c>
-      <c r="F138" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-7347.663075130002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>477</v>
-      </c>
-      <c r="C139" t="n">
-        <v>477</v>
-      </c>
-      <c r="D139" t="n">
-        <v>477</v>
-      </c>
-      <c r="E139" t="n">
-        <v>477</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-7348.663075130002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>478</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>477</v>
-      </c>
-      <c r="C140" t="n">
-        <v>477</v>
-      </c>
-      <c r="D140" t="n">
-        <v>477</v>
-      </c>
-      <c r="E140" t="n">
-        <v>477</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-7348.663075130002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>477</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>477</v>
-      </c>
-      <c r="C141" t="n">
-        <v>477</v>
-      </c>
-      <c r="D141" t="n">
-        <v>477</v>
-      </c>
-      <c r="E141" t="n">
-        <v>477</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-7348.663075130002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>477</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>480</v>
-      </c>
-      <c r="C142" t="n">
-        <v>480</v>
-      </c>
-      <c r="D142" t="n">
-        <v>480</v>
-      </c>
-      <c r="E142" t="n">
-        <v>480</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-7345.663075130002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>477</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>477</v>
-      </c>
-      <c r="C143" t="n">
-        <v>480</v>
-      </c>
-      <c r="D143" t="n">
-        <v>480</v>
-      </c>
-      <c r="E143" t="n">
-        <v>477</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.9562</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-7345.663075130002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>480</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5371,12 +5165,12 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>480</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>477</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,12 +5204,12 @@
         <v>-7346.663075130002</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>480</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>477</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,7 +5248,9 @@
       <c r="I146" t="n">
         <v>478</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>477</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,7 +5289,9 @@
       <c r="I147" t="n">
         <v>480</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>477</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,12 +5325,12 @@
         <v>-7206.663075130002</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>480</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>477</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5544,6 +5342,6 @@
       <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -451,7 +451,7 @@
         <v>4006.14960985</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3998.60262487</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3989.61012487</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2138.85602487</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1239.01812487</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-918.7090751300002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2412.69043908</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-8902.330275130002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4548.575475130001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4550.925275130001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4680.925275130001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4680.925275130001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3379.925275130001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3378.925275130001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4840.415875130001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4840.415875130001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4839.415875130001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4855.084075130001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4860.084075130001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5050,9 +5050,11 @@
         <v>-7348.663075130002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>477</v>
+      </c>
       <c r="J141" t="n">
         <v>478</v>
       </c>
@@ -5126,9 +5128,11 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>480</v>
+      </c>
       <c r="J143" t="n">
         <v>477</v>
       </c>
@@ -5165,9 +5169,11 @@
         <v>-7345.663075130002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>480</v>
+      </c>
       <c r="J144" t="n">
         <v>477</v>
       </c>
@@ -5204,9 +5210,11 @@
         <v>-7346.663075130002</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>480</v>
+      </c>
       <c r="J145" t="n">
         <v>477</v>
       </c>
@@ -5325,9 +5333,11 @@
         <v>-7206.663075130002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>480</v>
+      </c>
       <c r="J148" t="n">
         <v>477</v>
       </c>

--- a/BackTest/2019-10-19 BackTest PPT.xlsx
+++ b/BackTest/2019-10-19 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2.39</v>
       </c>
       <c r="G2" t="n">
-        <v>4006.14960985</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4.33673469</v>
       </c>
       <c r="G3" t="n">
-        <v>4010.48634454</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>11.88371967</v>
       </c>
       <c r="G4" t="n">
-        <v>3998.60262487</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>8.9925</v>
       </c>
       <c r="G5" t="n">
-        <v>3989.61012487</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11.93389715</v>
       </c>
       <c r="G6" t="n">
-        <v>3989.61012487</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3989.61012487</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>3989.61012487</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>3989.61012487</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2835.0663</v>
       </c>
       <c r="G10" t="n">
-        <v>1154.54382487</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1983.8398</v>
       </c>
       <c r="G11" t="n">
-        <v>3138.38362487</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>292.9974</v>
       </c>
       <c r="G12" t="n">
-        <v>2845.38622487</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2846.38622487</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>717.6102</v>
       </c>
       <c r="G14" t="n">
-        <v>2128.77602487</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>14.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2142.85602487</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>2139.85602487</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2138.85602487</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>471.23</v>
       </c>
       <c r="G18" t="n">
-        <v>2610.08602487</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1422.0679</v>
       </c>
       <c r="G19" t="n">
-        <v>1188.01812487</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>1238.01812487</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1237.01812487</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>1239.01812487</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1238.01812487</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1239.01812487</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2157.7272</v>
       </c>
       <c r="G25" t="n">
-        <v>-918.7090751300002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>312.9548</v>
       </c>
       <c r="G26" t="n">
-        <v>-918.7090751300002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1120</v>
       </c>
       <c r="G27" t="n">
-        <v>-2038.70907513</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>172.3234</v>
       </c>
       <c r="G28" t="n">
-        <v>-2038.70907513</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>7947.5485</v>
       </c>
       <c r="G29" t="n">
-        <v>-9986.257575129999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-9985.257575129999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-9986.257575129999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2569.0116</v>
       </c>
       <c r="G32" t="n">
-        <v>-9986.257575129999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1230.832</v>
       </c>
       <c r="G33" t="n">
-        <v>-9986.257575129999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>726.0869</v>
       </c>
       <c r="G34" t="n">
-        <v>-9986.257575129999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>710.2380000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-9986.257575129999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>66.3261</v>
       </c>
       <c r="G36" t="n">
-        <v>-9986.257575129999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>624.6164</v>
       </c>
       <c r="G37" t="n">
-        <v>-10610.87397513</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>7707.0117</v>
       </c>
       <c r="G38" t="n">
-        <v>-2903.86227513</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>359.4097</v>
       </c>
       <c r="G39" t="n">
-        <v>-2544.45257513</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>0.0001</v>
       </c>
       <c r="G40" t="n">
-        <v>-2544.45257513</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2102.648</v>
       </c>
       <c r="G41" t="n">
-        <v>-441.8045751299996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>221.2533</v>
       </c>
       <c r="G42" t="n">
-        <v>-441.8045751299996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>3472.0191</v>
       </c>
       <c r="G43" t="n">
-        <v>-441.8045751299996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>4.3494</v>
       </c>
       <c r="G44" t="n">
-        <v>-441.8045751299996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>708.3309</v>
       </c>
       <c r="G45" t="n">
-        <v>266.5263248700004</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>30</v>
       </c>
       <c r="G46" t="n">
-        <v>266.5263248700004</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>693</v>
       </c>
       <c r="G47" t="n">
-        <v>-426.4736751299996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>507</v>
       </c>
       <c r="G48" t="n">
-        <v>-426.4736751299996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>125.9999</v>
       </c>
       <c r="G49" t="n">
-        <v>-552.4735751299996</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>324</v>
       </c>
       <c r="G50" t="n">
-        <v>-552.4735751299996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>676.7</v>
       </c>
       <c r="G51" t="n">
-        <v>-1229.17357513</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>886.9446</v>
       </c>
       <c r="G52" t="n">
-        <v>-1229.17357513</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>225.6</v>
       </c>
       <c r="G53" t="n">
-        <v>-1003.57357513</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>200</v>
       </c>
       <c r="G54" t="n">
-        <v>-1203.57357513</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>97.06950000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-1300.64307513</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>89.2479</v>
       </c>
       <c r="G56" t="n">
-        <v>-1389.89097513</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>27</v>
       </c>
       <c r="G57" t="n">
-        <v>-1389.89097513</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>86.2</v>
       </c>
       <c r="G58" t="n">
-        <v>-1303.69097513</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>2311.8004</v>
       </c>
       <c r="G59" t="n">
-        <v>1008.10942487</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>66.47369999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>941.6357248700001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>33.5263</v>
       </c>
       <c r="G61" t="n">
-        <v>941.6357248700001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>447.8816</v>
       </c>
       <c r="G62" t="n">
-        <v>493.7541248700001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2049.253</v>
       </c>
       <c r="G63" t="n">
-        <v>493.7541248700001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1075.4559</v>
       </c>
       <c r="G64" t="n">
-        <v>-581.7017751299998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10253.9946</v>
       </c>
       <c r="G65" t="n">
-        <v>-581.7017751299998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>-581.7017751299998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>8.9491</v>
       </c>
       <c r="G67" t="n">
-        <v>-572.7526751299997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-573.7526751299997</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>84.8948</v>
       </c>
       <c r="G69" t="n">
-        <v>-573.7526751299997</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2.09643605</v>
       </c>
       <c r="G70" t="n">
-        <v>-571.6562390799998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-572.6562390799998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,19 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-571.6562390799998</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>473</v>
+      </c>
+      <c r="I72" t="n">
+        <v>473</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2577,23 @@
         <v>90.21080000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-661.8670390799998</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>477</v>
+      </c>
+      <c r="I73" t="n">
+        <v>473</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2615,23 @@
         <v>298.6064</v>
       </c>
       <c r="G74" t="n">
-        <v>-363.2606390799998</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>473</v>
+      </c>
+      <c r="I74" t="n">
+        <v>473</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2653,23 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-362.2606390799998</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>477</v>
+      </c>
+      <c r="I75" t="n">
+        <v>473</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2691,21 @@
         <v>241.54706395</v>
       </c>
       <c r="G76" t="n">
-        <v>-362.2606390799998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>473</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2727,21 @@
         <v>1331.3443</v>
       </c>
       <c r="G77" t="n">
-        <v>969.0836609200002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>473</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2763,21 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>970.0836609200002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>473</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2799,21 @@
         <v>2022.7941</v>
       </c>
       <c r="G79" t="n">
-        <v>-1052.71043908</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>473</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2835,21 @@
         <v>312.02</v>
       </c>
       <c r="G80" t="n">
-        <v>-740.69043908</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>473</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2871,21 @@
         <v>1672</v>
       </c>
       <c r="G81" t="n">
-        <v>-2412.69043908</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>473</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2907,21 @@
         <v>102</v>
       </c>
       <c r="G82" t="n">
-        <v>-2412.69043908</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>473</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2943,21 @@
         <v>3868.828</v>
       </c>
       <c r="G83" t="n">
-        <v>-6281.51843908</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>473</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2979,21 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>-6280.51843908</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>473</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3015,21 @@
         <v>308.02</v>
       </c>
       <c r="G85" t="n">
-        <v>-6588.538439080001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>473</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3051,21 @@
         <v>1165.6791</v>
       </c>
       <c r="G86" t="n">
-        <v>-6588.538439080001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>473</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3087,21 @@
         <v>1730.2702</v>
       </c>
       <c r="G87" t="n">
-        <v>-6588.538439080001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>473</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1.011913319238901</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3123,15 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-6589.538439080001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3153,15 @@
         <v>638</v>
       </c>
       <c r="G89" t="n">
-        <v>-5951.538439080001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3183,15 @@
         <v>2383.5446</v>
       </c>
       <c r="G90" t="n">
-        <v>-5951.538439080001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3213,15 @@
         <v>480.39493605</v>
       </c>
       <c r="G91" t="n">
-        <v>-6431.933375130001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3243,15 @@
         <v>93</v>
       </c>
       <c r="G92" t="n">
-        <v>-6431.933375130001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3273,15 @@
         <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>-6431.933375130001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3303,15 @@
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>-6431.933375130001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3333,15 @@
         <v>437.2869</v>
       </c>
       <c r="G95" t="n">
-        <v>-5994.646475130001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3363,15 @@
         <v>444.4444</v>
       </c>
       <c r="G96" t="n">
-        <v>-6439.090875130001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3393,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>-6440.090875130001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3423,15 @@
         <v>279.5124</v>
       </c>
       <c r="G98" t="n">
-        <v>-6440.090875130001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3453,15 @@
         <v>1.005</v>
       </c>
       <c r="G99" t="n">
-        <v>-6439.085875130001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3483,15 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-6440.085875130001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3513,15 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-6439.085875130001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3543,15 @@
         <v>2108.1</v>
       </c>
       <c r="G102" t="n">
-        <v>-8547.185875130001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3573,15 @@
         <v>2.5744</v>
       </c>
       <c r="G103" t="n">
-        <v>-8547.185875130001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3603,15 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>-8548.185875130001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3633,15 @@
         <v>72</v>
       </c>
       <c r="G105" t="n">
-        <v>-8476.185875130001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3663,15 @@
         <v>18.3</v>
       </c>
       <c r="G106" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3693,15 @@
         <v>188.5629</v>
       </c>
       <c r="G107" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3723,15 @@
         <v>9.523899999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-8457.885875130001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3753,15 @@
         <v>444.4444</v>
       </c>
       <c r="G109" t="n">
-        <v>-8902.330275130002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3783,15 @@
         <v>2117.7451</v>
       </c>
       <c r="G110" t="n">
-        <v>-6784.585175130002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3813,15 @@
         <v>169.894</v>
       </c>
       <c r="G111" t="n">
-        <v>-6614.691175130001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3843,15 @@
         <v>2066.1157</v>
       </c>
       <c r="G112" t="n">
-        <v>-4548.575475130001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3873,15 @@
         <v>2.3498</v>
       </c>
       <c r="G113" t="n">
-        <v>-4550.925275130001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3903,15 @@
         <v>130</v>
       </c>
       <c r="G114" t="n">
-        <v>-4680.925275130001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3933,15 @@
         <v>30</v>
       </c>
       <c r="G115" t="n">
-        <v>-4680.925275130001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3963,15 @@
         <v>1301</v>
       </c>
       <c r="G116" t="n">
-        <v>-3379.925275130001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3993,15 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-3378.925275130001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4023,15 @@
         <v>1461.4906</v>
       </c>
       <c r="G118" t="n">
-        <v>-4840.415875130001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4053,15 @@
         <v>38.1363</v>
       </c>
       <c r="G119" t="n">
-        <v>-4840.415875130001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4083,15 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>-4839.415875130001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4113,15 @@
         <v>15.6682</v>
       </c>
       <c r="G121" t="n">
-        <v>-4855.084075130001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4143,15 @@
         <v>5</v>
       </c>
       <c r="G122" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4173,15 @@
         <v>643.1485</v>
       </c>
       <c r="G123" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4203,15 @@
         <v>14.3532</v>
       </c>
       <c r="G124" t="n">
-        <v>-4860.084075130001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4233,15 @@
         <v>1886.6464</v>
       </c>
       <c r="G125" t="n">
-        <v>-6746.730475130002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4263,15 @@
         <v>260.3</v>
       </c>
       <c r="G126" t="n">
-        <v>-6486.430475130001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4293,15 @@
         <v>1359.1</v>
       </c>
       <c r="G127" t="n">
-        <v>-5127.330475130002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4323,15 @@
         <v>111.7432</v>
       </c>
       <c r="G128" t="n">
-        <v>-5239.073675130002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4353,15 @@
         <v>1852.2416</v>
       </c>
       <c r="G129" t="n">
-        <v>-7091.315275130002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4383,15 @@
         <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4413,15 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4443,15 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4473,15 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>-7085.315275130002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4503,15 @@
         <v>169.4145</v>
       </c>
       <c r="G134" t="n">
-        <v>-7254.729775130002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4533,15 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>-7255.729775130002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4563,15 @@
         <v>1.9667</v>
       </c>
       <c r="G136" t="n">
-        <v>-7253.763075130002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4593,15 @@
         <v>13.5135</v>
       </c>
       <c r="G137" t="n">
-        <v>-7253.763075130002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4623,15 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>-7347.663075130002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,22 +4653,15 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>-7348.663075130002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>478</v>
-      </c>
-      <c r="J139" t="n">
-        <v>478</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5006,26 +4683,15 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>-7348.663075130002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>477</v>
-      </c>
-      <c r="J140" t="n">
-        <v>478</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5047,26 +4713,15 @@
         <v>3</v>
       </c>
       <c r="G141" t="n">
-        <v>-7348.663075130002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>477</v>
-      </c>
-      <c r="J141" t="n">
-        <v>478</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5088,22 +4743,15 @@
         <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>-7345.663075130002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>477</v>
-      </c>
-      <c r="J142" t="n">
-        <v>477</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5125,26 +4773,15 @@
         <v>2.9562</v>
       </c>
       <c r="G143" t="n">
-        <v>-7345.663075130002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>480</v>
-      </c>
-      <c r="J143" t="n">
-        <v>477</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5166,26 +4803,15 @@
         <v>293.3438</v>
       </c>
       <c r="G144" t="n">
-        <v>-7345.663075130002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>480</v>
-      </c>
-      <c r="J144" t="n">
-        <v>477</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5207,26 +4833,15 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>-7346.663075130002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>480</v>
-      </c>
-      <c r="J145" t="n">
-        <v>477</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5248,26 +4863,15 @@
         <v>139</v>
       </c>
       <c r="G146" t="n">
-        <v>-7207.663075130002</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>478</v>
-      </c>
-      <c r="J146" t="n">
-        <v>477</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5289,26 +4893,15 @@
         <v>348.2</v>
       </c>
       <c r="G147" t="n">
-        <v>-7207.663075130002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>480</v>
-      </c>
-      <c r="J147" t="n">
-        <v>477</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5330,26 +4923,15 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>-7206.663075130002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>480</v>
-      </c>
-      <c r="J148" t="n">
-        <v>477</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
